--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -21,11 +21,11 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$AF$1:$AF$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AT$1:$AT$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$BK$1:$BK$7</definedName>
     <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AM$1:$AM$4</definedName>
     <definedName name="sortingtechnology">'cv_sample'!$AL$1:$AL$6</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="695">
   <si>
     <t>alias</t>
   </si>
@@ -456,6 +456,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -555,6 +567,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -672,6 +702,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -679,6 +712,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2629,10 +2665,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2673,10 +2709,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2739,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2723,7 +2759,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2740,7 +2776,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2757,7 +2793,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2774,7 +2810,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2791,7 +2827,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2808,7 +2844,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2825,7 +2861,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2842,7 +2878,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2859,7 +2895,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2873,7 +2909,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2887,7 +2923,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2901,7 +2937,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2915,7 +2951,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2925,8 +2961,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2936,8 +2975,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2947,8 +2989,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2958,8 +3003,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2970,7 +3018,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2981,7 +3029,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2992,7 +3040,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3003,7 +3051,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3014,7 +3062,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3025,7 +3073,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3036,7 +3084,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3047,7 +3095,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3058,7 +3106,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3069,7 +3117,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3080,7 +3128,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3091,7 +3139,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3102,7 +3150,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3113,7 +3161,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3121,7 +3169,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3129,7 +3177,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3137,7 +3185,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3145,7 +3193,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3153,7 +3201,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3161,7 +3209,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3169,7 +3217,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3177,7 +3225,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3185,7 +3233,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3193,176 +3241,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3387,27 +3475,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3430,122 +3518,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3572,378 +3660,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -3987,96 +4075,96 @@
   <sheetData>
     <row r="1" spans="25:63">
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AF1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AI1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AL1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AM1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AO1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="AT1" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="BK1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="25:63">
       <c r="Y2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AF2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AI2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AL2" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AM2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AO2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AT2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="BK2" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="25:63">
       <c r="AI3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AL3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AM3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AT3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="BK3" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="25:63">
       <c r="AL4" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AM4" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AT4" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="BK4" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="25:63">
       <c r="AL5" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AT5" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="BK5" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="25:63">
@@ -4084,1418 +4172,1418 @@
         <v>116</v>
       </c>
       <c r="AT6" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="BK6" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="25:63">
       <c r="AT7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="BK7" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="25:63">
       <c r="AT8" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="25:63">
       <c r="AT9" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="25:63">
       <c r="AT10" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="25:63">
       <c r="AT11" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="25:63">
       <c r="AT12" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="25:63">
       <c r="AT13" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="25:63">
       <c r="AT14" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="25:63">
       <c r="AT15" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="25:63">
       <c r="AT16" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="46:46">
       <c r="AT17" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="46:46">
       <c r="AT18" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="46:46">
       <c r="AT19" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="46:46">
       <c r="AT20" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="46:46">
       <c r="AT21" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="46:46">
       <c r="AT22" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="46:46">
       <c r="AT23" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="46:46">
       <c r="AT24" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="46:46">
       <c r="AT25" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="46:46">
       <c r="AT26" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="46:46">
       <c r="AT27" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="46:46">
       <c r="AT28" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="46:46">
       <c r="AT29" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="46:46">
       <c r="AT30" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="46:46">
       <c r="AT31" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="46:46">
       <c r="AT32" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="46:46">
       <c r="AT33" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="46:46">
       <c r="AT34" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="46:46">
       <c r="AT35" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="46:46">
       <c r="AT36" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="46:46">
       <c r="AT37" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="46:46">
       <c r="AT38" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="46:46">
       <c r="AT39" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="46:46">
       <c r="AT40" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="46:46">
       <c r="AT41" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="46:46">
       <c r="AT42" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="46:46">
       <c r="AT43" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="46:46">
       <c r="AT44" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="46:46">
       <c r="AT45" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="AT46" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="46:46">
       <c r="AT47" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="46:46">
       <c r="AT48" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="46:46">
       <c r="AT49" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="46:46">
       <c r="AT50" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="46:46">
       <c r="AT51" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="46:46">
       <c r="AT52" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="46:46">
       <c r="AT53" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="46:46">
       <c r="AT54" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="46:46">
       <c r="AT55" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="46:46">
       <c r="AT56" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="46:46">
       <c r="AT57" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="46:46">
       <c r="AT58" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="46:46">
       <c r="AT59" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="46:46">
       <c r="AT60" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="46:46">
       <c r="AT61" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="46:46">
       <c r="AT62" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="46:46">
       <c r="AT63" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="46:46">
       <c r="AT64" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="46:46">
       <c r="AT65" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="46:46">
       <c r="AT66" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="46:46">
       <c r="AT67" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="46:46">
       <c r="AT68" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="46:46">
       <c r="AT69" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="46:46">
       <c r="AT70" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="46:46">
       <c r="AT71" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="46:46">
       <c r="AT72" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="46:46">
       <c r="AT73" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="46:46">
       <c r="AT74" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="46:46">
       <c r="AT75" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="46:46">
       <c r="AT76" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="46:46">
       <c r="AT77" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="46:46">
       <c r="AT78" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="46:46">
       <c r="AT79" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="46:46">
       <c r="AT80" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="46:46">
       <c r="AT81" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="46:46">
       <c r="AT82" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="46:46">
       <c r="AT83" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="46:46">
       <c r="AT84" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="46:46">
       <c r="AT85" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="46:46">
       <c r="AT86" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="46:46">
       <c r="AT87" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="46:46">
       <c r="AT88" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="46:46">
       <c r="AT89" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="46:46">
       <c r="AT90" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="46:46">
       <c r="AT91" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="46:46">
       <c r="AT92" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="46:46">
       <c r="AT93" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="46:46">
       <c r="AT94" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="46:46">
       <c r="AT95" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="46:46">
       <c r="AT96" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="46:46">
       <c r="AT97" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="46:46">
       <c r="AT98" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="46:46">
       <c r="AT99" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="46:46">
       <c r="AT100" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="46:46">
       <c r="AT101" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="46:46">
       <c r="AT102" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="46:46">
       <c r="AT103" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="46:46">
       <c r="AT104" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="46:46">
       <c r="AT105" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="106" spans="46:46">
       <c r="AT106" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="46:46">
       <c r="AT107" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="46:46">
       <c r="AT108" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="46:46">
       <c r="AT109" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" spans="46:46">
       <c r="AT110" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="46:46">
       <c r="AT111" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="46:46">
       <c r="AT112" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="46:46">
       <c r="AT113" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="46:46">
       <c r="AT114" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" spans="46:46">
       <c r="AT115" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="46:46">
       <c r="AT116" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="46:46">
       <c r="AT117" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="46:46">
       <c r="AT118" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="119" spans="46:46">
       <c r="AT119" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="46:46">
       <c r="AT120" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="46:46">
       <c r="AT121" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="46:46">
       <c r="AT122" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="46:46">
       <c r="AT123" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="46:46">
       <c r="AT124" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="46:46">
       <c r="AT125" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="46:46">
       <c r="AT126" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="46:46">
       <c r="AT127" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="46:46">
       <c r="AT128" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="46:46">
       <c r="AT129" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="46:46">
       <c r="AT130" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="46:46">
       <c r="AT131" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="46:46">
       <c r="AT132" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" spans="46:46">
       <c r="AT133" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="46:46">
       <c r="AT134" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="46:46">
       <c r="AT135" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="46:46">
       <c r="AT136" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="46:46">
       <c r="AT137" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="138" spans="46:46">
       <c r="AT138" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="46:46">
       <c r="AT139" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="46:46">
       <c r="AT140" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="46:46">
       <c r="AT141" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="46:46">
       <c r="AT142" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" spans="46:46">
       <c r="AT143" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="46:46">
       <c r="AT144" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="46:46">
       <c r="AT145" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="46:46">
       <c r="AT146" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="46:46">
       <c r="AT147" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="148" spans="46:46">
       <c r="AT148" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="46:46">
       <c r="AT149" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="150" spans="46:46">
       <c r="AT150" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="151" spans="46:46">
       <c r="AT151" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="46:46">
       <c r="AT152" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="46:46">
       <c r="AT153" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="154" spans="46:46">
       <c r="AT154" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="155" spans="46:46">
       <c r="AT155" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="156" spans="46:46">
       <c r="AT156" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="46:46">
       <c r="AT157" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="46:46">
       <c r="AT158" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="46:46">
       <c r="AT159" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="46:46">
       <c r="AT160" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="46:46">
       <c r="AT161" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="162" spans="46:46">
       <c r="AT162" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="163" spans="46:46">
       <c r="AT163" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="46:46">
       <c r="AT164" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="165" spans="46:46">
       <c r="AT165" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="166" spans="46:46">
       <c r="AT166" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="167" spans="46:46">
       <c r="AT167" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" spans="46:46">
       <c r="AT168" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="46:46">
       <c r="AT169" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="170" spans="46:46">
       <c r="AT170" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="46:46">
       <c r="AT171" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="172" spans="46:46">
       <c r="AT172" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" spans="46:46">
       <c r="AT173" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="174" spans="46:46">
       <c r="AT174" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="175" spans="46:46">
       <c r="AT175" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="176" spans="46:46">
       <c r="AT176" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="177" spans="46:46">
       <c r="AT177" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="178" spans="46:46">
       <c r="AT178" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="179" spans="46:46">
       <c r="AT179" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="180" spans="46:46">
       <c r="AT180" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="46:46">
       <c r="AT181" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" spans="46:46">
       <c r="AT182" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183" spans="46:46">
       <c r="AT183" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="46:46">
       <c r="AT184" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185" spans="46:46">
       <c r="AT185" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="186" spans="46:46">
       <c r="AT186" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="46:46">
       <c r="AT187" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="188" spans="46:46">
       <c r="AT188" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="46:46">
       <c r="AT189" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="46:46">
       <c r="AT190" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" spans="46:46">
       <c r="AT191" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="192" spans="46:46">
       <c r="AT192" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="193" spans="46:46">
       <c r="AT193" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" spans="46:46">
       <c r="AT194" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="195" spans="46:46">
       <c r="AT195" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="46:46">
       <c r="AT196" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="197" spans="46:46">
       <c r="AT197" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="46:46">
       <c r="AT198" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="199" spans="46:46">
       <c r="AT199" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" spans="46:46">
       <c r="AT200" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="46:46">
       <c r="AT201" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="202" spans="46:46">
       <c r="AT202" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="203" spans="46:46">
       <c r="AT203" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="46:46">
       <c r="AT204" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="46:46">
       <c r="AT205" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="46:46">
       <c r="AT206" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" spans="46:46">
       <c r="AT207" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="46:46">
       <c r="AT208" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="209" spans="46:46">
       <c r="AT209" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="46:46">
       <c r="AT210" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="46:46">
       <c r="AT211" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="212" spans="46:46">
       <c r="AT212" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="46:46">
       <c r="AT213" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="214" spans="46:46">
       <c r="AT214" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215" spans="46:46">
       <c r="AT215" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="46:46">
       <c r="AT216" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="46:46">
       <c r="AT217" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="46:46">
       <c r="AT218" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="219" spans="46:46">
       <c r="AT219" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="220" spans="46:46">
       <c r="AT220" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="221" spans="46:46">
       <c r="AT221" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="222" spans="46:46">
       <c r="AT222" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="223" spans="46:46">
       <c r="AT223" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="224" spans="46:46">
       <c r="AT224" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="46:46">
       <c r="AT225" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="226" spans="46:46">
       <c r="AT226" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="46:46">
       <c r="AT227" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="228" spans="46:46">
       <c r="AT228" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="229" spans="46:46">
       <c r="AT229" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="230" spans="46:46">
       <c r="AT230" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="231" spans="46:46">
       <c r="AT231" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="232" spans="46:46">
       <c r="AT232" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="233" spans="46:46">
       <c r="AT233" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="234" spans="46:46">
       <c r="AT234" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="235" spans="46:46">
       <c r="AT235" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="236" spans="46:46">
       <c r="AT236" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="237" spans="46:46">
       <c r="AT237" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="238" spans="46:46">
       <c r="AT238" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="239" spans="46:46">
       <c r="AT239" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="240" spans="46:46">
       <c r="AT240" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="46:46">
       <c r="AT241" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="242" spans="46:46">
       <c r="AT242" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="243" spans="46:46">
       <c r="AT243" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="244" spans="46:46">
       <c r="AT244" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="245" spans="46:46">
       <c r="AT245" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="246" spans="46:46">
       <c r="AT246" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247" spans="46:46">
       <c r="AT247" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="248" spans="46:46">
       <c r="AT248" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="249" spans="46:46">
       <c r="AT249" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="250" spans="46:46">
       <c r="AT250" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="251" spans="46:46">
       <c r="AT251" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="252" spans="46:46">
       <c r="AT252" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="253" spans="46:46">
       <c r="AT253" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="254" spans="46:46">
       <c r="AT254" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="255" spans="46:46">
       <c r="AT255" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="256" spans="46:46">
       <c r="AT256" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="257" spans="46:46">
       <c r="AT257" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="258" spans="46:46">
       <c r="AT258" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="259" spans="46:46">
       <c r="AT259" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="260" spans="46:46">
       <c r="AT260" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="261" spans="46:46">
       <c r="AT261" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="262" spans="46:46">
       <c r="AT262" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="263" spans="46:46">
       <c r="AT263" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="264" spans="46:46">
       <c r="AT264" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="265" spans="46:46">
       <c r="AT265" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="266" spans="46:46">
       <c r="AT266" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="267" spans="46:46">
       <c r="AT267" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="268" spans="46:46">
       <c r="AT268" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="269" spans="46:46">
       <c r="AT269" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="270" spans="46:46">
       <c r="AT270" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="46:46">
       <c r="AT271" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="272" spans="46:46">
       <c r="AT272" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="273" spans="46:46">
       <c r="AT273" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="274" spans="46:46">
       <c r="AT274" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="275" spans="46:46">
       <c r="AT275" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="276" spans="46:46">
       <c r="AT276" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="277" spans="46:46">
       <c r="AT277" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="278" spans="46:46">
       <c r="AT278" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="279" spans="46:46">
       <c r="AT279" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="280" spans="46:46">
       <c r="AT280" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="281" spans="46:46">
       <c r="AT281" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="282" spans="46:46">
       <c r="AT282" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="283" spans="46:46">
       <c r="AT283" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="284" spans="46:46">
       <c r="AT284" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="285" spans="46:46">
       <c r="AT285" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="286" spans="46:46">
       <c r="AT286" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="287" spans="46:46">
       <c r="AT287" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -981,8 +981,7 @@
     <t>completeness score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. Units: 
-                    </t>
+    <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
     <t>completeness software</t>
@@ -1000,8 +999,7 @@
     <t>contamination score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. Units: 
-                    </t>
+    <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
   </si>
   <si>
     <t>contigs</t>
@@ -1133,8 +1131,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -2007,15 +2004,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -2027,8 +2022,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -2052,8 +2046,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -2071,8 +2064,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>size fraction selected</t>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -105,7 +105,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -17,27 +17,27 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="assemblyquality">'cv_sample'!$AI$1:$AI$3</definedName>
-    <definedName name="contaminationscreeninginput">'cv_sample'!$AF$1:$AF$2</definedName>
+    <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
+    <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AT$1:$AT$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$BK$1:$BK$7</definedName>
-    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AM$1:$AM$4</definedName>
-    <definedName name="sortingtechnology">'cv_sample'!$AL$1:$AL$6</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$E$1:$E$7</definedName>
+    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AV$1:$AV$4</definedName>
+    <definedName name="sortingtechnology">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="WGAamplificationapproach">'cv_sample'!$AO$1:$AO$2</definedName>
+    <definedName name="WGAamplificationapproach">'cv_sample'!$BF$1:$BF$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="696">
   <si>
     <t>alias</t>
   </si>
@@ -834,28 +834,1198 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>aerobe</t>
+  </si>
+  <si>
+    <t>anaerobe</t>
+  </si>
+  <si>
+    <t>facultative</t>
+  </si>
+  <si>
+    <t>microaerophilic</t>
+  </si>
+  <si>
+    <t>microanaerobe</t>
+  </si>
+  <si>
+    <t>obligate aerobe</t>
+  </si>
+  <si>
+    <t>obligate anaerobe</t>
+  </si>
+  <si>
+    <t>relationship to oxygen</t>
+  </si>
+  <si>
+    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+  </si>
+  <si>
+    <t>sample collection device</t>
+  </si>
+  <si>
+    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
+  </si>
+  <si>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>metagenomic source</t>
+  </si>
+  <si>
+    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
+  </si>
+  <si>
+    <t>sample derived from</t>
+  </si>
+  <si>
+    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
+  </si>
+  <si>
     <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
+    <t>multiplex identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+  </si>
+  <si>
+    <t>relevant electronic resources</t>
+  </si>
+  <si>
+    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>relevant standard operating procedures</t>
+  </si>
+  <si>
+    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>number of standard tRNAs extracted</t>
+  </si>
+  <si>
+    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
+  </si>
+  <si>
+    <t>feature prediction</t>
+  </si>
+  <si>
+    <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>similarity search method</t>
+  </si>
+  <si>
+    <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>16s recovered</t>
+  </si>
+  <si>
+    <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
+  </si>
+  <si>
+    <t>16S recovery software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>tRNA extraction software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>completeness score</t>
+  </si>
+  <si>
+    <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
+  </si>
+  <si>
+    <t>completeness software</t>
+  </si>
+  <si>
+    <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>completeness approach</t>
+  </si>
+  <si>
+    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
+  </si>
+  <si>
+    <t>contamination score</t>
+  </si>
+  <si>
+    <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
+  </si>
+  <si>
+    <t>contigs</t>
+  </si>
+  <si>
+    <t>reads</t>
+  </si>
+  <si>
+    <t>contamination screening input</t>
+  </si>
+  <si>
+    <t>(Optional) The type of sequence data used as input</t>
+  </si>
+  <si>
+    <t>contamination screening parameters</t>
+  </si>
+  <si>
+    <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
+  </si>
+  <si>
+    <t>decontamination software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used in contamination screening</t>
+  </si>
+  <si>
+    <t>Many fragments with little to no review of assembly other than reporting of standard assembly statistics</t>
+  </si>
+  <si>
+    <t>Multiple fragments where gaps span repetitive regions. Presence of the 23S, 16S, and 5S rRNA genes and at least 18 tRNAs</t>
+  </si>
+  <si>
+    <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
+  </si>
+  <si>
+    <t>assembly quality</t>
+  </si>
+  <si>
+    <t>(Recommended) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
+  </si>
+  <si>
+    <t>taxonomic identity marker</t>
+  </si>
+  <si>
+    <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
+    <t>source material identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
+  </si>
+  <si>
     <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
+    <t>taxonomic classification</t>
+  </si>
+  <si>
+    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
+  </si>
+  <si>
+    <t>annotation source</t>
+  </si>
+  <si>
+    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
+  </si>
+  <si>
     <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>annotation source</t>
-  </si>
-  <si>
-    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
+    <t>reference database(s)</t>
+  </si>
+  <si>
+    <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>enzymatic</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>single cell or viral particle lysis approach</t>
+  </si>
+  <si>
+    <t>(Mandatory) Method used to free dna from interior of the cell(s) or particle(s)</t>
+  </si>
+  <si>
+    <t>single cell or viral particle lysis kit protocol</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
+  </si>
+  <si>
+    <t>sample material processing</t>
+  </si>
+  <si>
+    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -894,10 +2064,49 @@
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+    <t>assembly software</t>
+  </si>
+  <si>
+    <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
+  </si>
+  <si>
+    <t>mda based</t>
+  </si>
+  <si>
+    <t>pcr based</t>
+  </si>
+  <si>
+    <t>WGA amplification approach</t>
+  </si>
+  <si>
+    <t>(Mandatory) Method used to amplify genomic dna in preparation for sequencing</t>
+  </si>
+  <si>
+    <t>WGA amplification kit</t>
+  </si>
+  <si>
+    <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
+  </si>
+  <si>
+    <t>flow cytometric cell sorting</t>
+  </si>
+  <si>
+    <t>lazer-tweezing</t>
+  </si>
+  <si>
+    <t>microfluidics</t>
+  </si>
+  <si>
+    <t>micromanipulation</t>
+  </si>
+  <si>
+    <t>optical manipulation</t>
+  </si>
+  <si>
+    <t>sorting technology</t>
+  </si>
+  <si>
+    <t>(Mandatory) Method used to sort/isolate cells or particles of interest</t>
   </si>
   <si>
     <t>adapters</t>
@@ -912,1216 +2121,10 @@
     <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
-  </si>
-  <si>
-    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>relevant standard operating procedures</t>
-  </si>
-  <si>
-    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>number of standard tRNAs extracted</t>
-  </si>
-  <si>
-    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
-  </si>
-  <si>
-    <t>assembly software</t>
-  </si>
-  <si>
-    <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
-  </si>
-  <si>
-    <t>feature prediction</t>
-  </si>
-  <si>
-    <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>reference database(s)</t>
-  </si>
-  <si>
-    <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
-  </si>
-  <si>
-    <t>similarity search method</t>
-  </si>
-  <si>
-    <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>16S recovered</t>
-  </si>
-  <si>
-    <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
-  </si>
-  <si>
-    <t>16S recovery software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>tRNA extraction software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>completeness score</t>
-  </si>
-  <si>
-    <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
-  </si>
-  <si>
-    <t>completeness software</t>
-  </si>
-  <si>
-    <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>completeness approach</t>
-  </si>
-  <si>
-    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
-  </si>
-  <si>
-    <t>contamination score</t>
-  </si>
-  <si>
-    <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
-  </si>
-  <si>
-    <t>contigs</t>
-  </si>
-  <si>
-    <t>reads</t>
-  </si>
-  <si>
-    <t>contamination screening input</t>
-  </si>
-  <si>
-    <t>(Optional) The type of sequence data used as input</t>
-  </si>
-  <si>
-    <t>contamination screening parameters</t>
-  </si>
-  <si>
-    <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
-  </si>
-  <si>
-    <t>decontamination software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used in contamination screening</t>
-  </si>
-  <si>
-    <t>Many fragments with little to no review of assembly other than reporting of standard assembly statistics</t>
-  </si>
-  <si>
-    <t>Multiple fragments where gaps span repetitive regions. Presence of the 23S, 16S, and 5S rRNA genes and at least 18 tRNAs</t>
-  </si>
-  <si>
-    <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
-  </si>
-  <si>
-    <t>assembly quality</t>
-  </si>
-  <si>
-    <t>(Recommended) Assembly quality is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. in sags, assembly quality is mandatory for prokaryotes and optional for eukaryotes.</t>
-  </si>
-  <si>
-    <t>taxonomic identity marker</t>
-  </si>
-  <si>
-    <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>taxonomic classification</t>
-  </si>
-  <si>
-    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
-  </si>
-  <si>
-    <t>flow cytometric cell sorting</t>
-  </si>
-  <si>
-    <t>lazer-tweezing</t>
-  </si>
-  <si>
-    <t>microfluidics</t>
-  </si>
-  <si>
-    <t>micromanipulation</t>
-  </si>
-  <si>
-    <t>optical manipulation</t>
-  </si>
-  <si>
-    <t>sorting technology</t>
-  </si>
-  <si>
-    <t>(Mandatory) Method used to sort/isolate cells or particles of interest</t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
-    <t>combination</t>
-  </si>
-  <si>
-    <t>enzymatic</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>single cell or viral particle lysis approach</t>
-  </si>
-  <si>
-    <t>(Mandatory) Method used to free dna from interior of the cell(s) or particle(s)</t>
-  </si>
-  <si>
-    <t>single cell or viral particle lysis kit protocol</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
-  </si>
-  <si>
-    <t>mda based</t>
-  </si>
-  <si>
-    <t>pcr based</t>
-  </si>
-  <si>
-    <t>WGA amplification approach</t>
-  </si>
-  <si>
-    <t>(Mandatory) Method used to amplify genomic dna in preparation for sequencing</t>
-  </si>
-  <si>
-    <t>WGA amplification kit</t>
-  </si>
-  <si>
-    <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>source material identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
-  </si>
-  <si>
-    <t>sample material processing</t>
-  </si>
-  <si>
-    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
-  </si>
-  <si>
-    <t>sample derived from</t>
-  </si>
-  <si>
-    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
-  </si>
-  <si>
-    <t>metagenomic source</t>
-  </si>
-  <si>
-    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
-  </si>
-  <si>
-    <t>sample collection device</t>
-  </si>
-  <si>
-    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
-  </si>
-  <si>
-    <t>sample collection method</t>
-  </si>
-  <si>
-    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
-  </si>
-  <si>
-    <t>aerobe</t>
-  </si>
-  <si>
-    <t>anaerobe</t>
-  </si>
-  <si>
-    <t>facultative</t>
-  </si>
-  <si>
-    <t>microaerophilic</t>
-  </si>
-  <si>
-    <t>microanaerobe</t>
-  </si>
-  <si>
-    <t>obligate aerobe</t>
-  </si>
-  <si>
-    <t>obligate anaerobe</t>
-  </si>
-  <si>
-    <t>relationship to oxygen</t>
-  </si>
-  <si>
-    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3658,181 +3661,181 @@
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>323</v>
+        <v>621</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>325</v>
+        <v>623</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>327</v>
+        <v>625</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>332</v>
+        <v>627</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>334</v>
+        <v>629</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>336</v>
+        <v>631</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>349</v>
+        <v>635</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>351</v>
+        <v>637</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>355</v>
+        <v>639</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>357</v>
+        <v>641</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>359</v>
+        <v>643</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>361</v>
+        <v>645</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>363</v>
+        <v>647</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -3849,208 +3852,208 @@
         <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>324</v>
+        <v>622</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>326</v>
+        <v>624</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>328</v>
+        <v>626</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>333</v>
+        <v>628</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>335</v>
+        <v>630</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>337</v>
+        <v>632</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>344</v>
+        <v>634</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>350</v>
+        <v>636</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>352</v>
+        <v>638</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>356</v>
+        <v>640</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>358</v>
+        <v>642</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>360</v>
+        <v>644</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>362</v>
+        <v>646</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
-      <formula1>16Srecovered</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+      <formula1>relationshiptooxygen</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+      <formula1>16srecovered</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+      <formula1>contaminationscreeninginput</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
+      <formula1>assemblyquality</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
-      <formula1>contaminationscreeninginput</formula1>
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
-      <formula1>assemblyquality</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
-      <formula1>sortingtechnology</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
       <formula1>WGAamplificationapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
-      <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK3:BK101">
-      <formula1>relationshiptooxygen</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
+      <formula1>sortingtechnology</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4059,1523 +4062,1528 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Y1:BK287"/>
+  <dimension ref="E1:BH288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="25:63">
-      <c r="Y1" t="s">
-        <v>305</v>
+    <row r="1" spans="5:60">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>320</v>
       </c>
       <c r="AF1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>653</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>677</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="5:60">
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>297</v>
+      </c>
+      <c r="X2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA2" t="s">
         <v>321</v>
       </c>
-      <c r="AI1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AF2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>654</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>678</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="5:60">
+      <c r="E3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>655</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="5:60">
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>656</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="5:60">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>337</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="5:60">
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF6" t="s">
         <v>338</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BH6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="5:60">
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="5:60">
+      <c r="AF8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="5:60">
+      <c r="AF9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="5:60">
+      <c r="AF10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="5:60">
+      <c r="AF11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="5:60">
+      <c r="AF12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="5:60">
+      <c r="AF13" t="s">
         <v>345</v>
       </c>
-      <c r="AO1" t="s">
+    </row>
+    <row r="14" spans="5:60">
+      <c r="AF14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="5:60">
+      <c r="AF15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="5:60">
+      <c r="AF16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="32:32">
+      <c r="AF17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="32:32">
+      <c r="AF18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="32:32">
+      <c r="AF19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="32:32">
+      <c r="AF20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="32:32">
+      <c r="AF21" t="s">
         <v>353</v>
       </c>
-      <c r="AT1" t="s">
+    </row>
+    <row r="22" spans="32:32">
+      <c r="AF22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="32:32">
+      <c r="AF23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="32:32">
+      <c r="AF24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="32:32">
+      <c r="AF25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="32:32">
+      <c r="AF26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="32:32">
+      <c r="AF27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="32:32">
+      <c r="AF28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="32:32">
+      <c r="AF29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="32:32">
+      <c r="AF30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="32:32">
+      <c r="AF31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="32:32">
+      <c r="AF32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="32:32">
+      <c r="AF33" t="s">
         <v>365</v>
       </c>
-      <c r="BK1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="25:63">
-      <c r="Y2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AT2" t="s">
+    </row>
+    <row r="34" spans="32:32">
+      <c r="AF34" t="s">
         <v>366</v>
       </c>
-      <c r="BK2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="25:63">
-      <c r="AI3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AT3" t="s">
+    </row>
+    <row r="35" spans="32:32">
+      <c r="AF35" t="s">
         <v>367</v>
       </c>
-      <c r="BK3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="25:63">
-      <c r="AL4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>348</v>
-      </c>
-      <c r="AT4" t="s">
+    </row>
+    <row r="36" spans="32:32">
+      <c r="AF36" t="s">
         <v>368</v>
       </c>
-      <c r="BK4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="5" spans="25:63">
-      <c r="AL5" t="s">
-        <v>342</v>
-      </c>
-      <c r="AT5" t="s">
+    </row>
+    <row r="37" spans="32:32">
+      <c r="AF37" t="s">
         <v>369</v>
       </c>
-      <c r="BK5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="25:63">
-      <c r="AL6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT6" t="s">
+    </row>
+    <row r="38" spans="32:32">
+      <c r="AF38" t="s">
         <v>370</v>
       </c>
-      <c r="BK6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="7" spans="25:63">
-      <c r="AT7" t="s">
+    </row>
+    <row r="39" spans="32:32">
+      <c r="AF39" t="s">
         <v>371</v>
       </c>
-      <c r="BK7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="25:63">
-      <c r="AT8" t="s">
+    </row>
+    <row r="40" spans="32:32">
+      <c r="AF40" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="25:63">
-      <c r="AT9" t="s">
+    <row r="41" spans="32:32">
+      <c r="AF41" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="25:63">
-      <c r="AT10" t="s">
+    <row r="42" spans="32:32">
+      <c r="AF42" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="25:63">
-      <c r="AT11" t="s">
+    <row r="43" spans="32:32">
+      <c r="AF43" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="25:63">
-      <c r="AT12" t="s">
+    <row r="44" spans="32:32">
+      <c r="AF44" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="25:63">
-      <c r="AT13" t="s">
+    <row r="45" spans="32:32">
+      <c r="AF45" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="25:63">
-      <c r="AT14" t="s">
+    <row r="46" spans="32:32">
+      <c r="AF46" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="25:63">
-      <c r="AT15" t="s">
+    <row r="47" spans="32:32">
+      <c r="AF47" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="25:63">
-      <c r="AT16" t="s">
+    <row r="48" spans="32:32">
+      <c r="AF48" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="46:46">
-      <c r="AT17" t="s">
+    <row r="49" spans="32:32">
+      <c r="AF49" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="46:46">
-      <c r="AT18" t="s">
+    <row r="50" spans="32:32">
+      <c r="AF50" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="46:46">
-      <c r="AT19" t="s">
+    <row r="51" spans="32:32">
+      <c r="AF51" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="46:46">
-      <c r="AT20" t="s">
+    <row r="52" spans="32:32">
+      <c r="AF52" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="46:46">
-      <c r="AT21" t="s">
+    <row r="53" spans="32:32">
+      <c r="AF53" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="46:46">
-      <c r="AT22" t="s">
+    <row r="54" spans="32:32">
+      <c r="AF54" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="46:46">
-      <c r="AT23" t="s">
+    <row r="55" spans="32:32">
+      <c r="AF55" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="46:46">
-      <c r="AT24" t="s">
+    <row r="56" spans="32:32">
+      <c r="AF56" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="46:46">
-      <c r="AT25" t="s">
+    <row r="57" spans="32:32">
+      <c r="AF57" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="46:46">
-      <c r="AT26" t="s">
+    <row r="58" spans="32:32">
+      <c r="AF58" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="46:46">
-      <c r="AT27" t="s">
+    <row r="59" spans="32:32">
+      <c r="AF59" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="46:46">
-      <c r="AT28" t="s">
+    <row r="60" spans="32:32">
+      <c r="AF60" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="46:46">
-      <c r="AT29" t="s">
+    <row r="61" spans="32:32">
+      <c r="AF61" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="46:46">
-      <c r="AT30" t="s">
+    <row r="62" spans="32:32">
+      <c r="AF62" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="46:46">
-      <c r="AT31" t="s">
+    <row r="63" spans="32:32">
+      <c r="AF63" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="46:46">
-      <c r="AT32" t="s">
+    <row r="64" spans="32:32">
+      <c r="AF64" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="46:46">
-      <c r="AT33" t="s">
+    <row r="65" spans="32:32">
+      <c r="AF65" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="46:46">
-      <c r="AT34" t="s">
+    <row r="66" spans="32:32">
+      <c r="AF66" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="46:46">
-      <c r="AT35" t="s">
+    <row r="67" spans="32:32">
+      <c r="AF67" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="46:46">
-      <c r="AT36" t="s">
+    <row r="68" spans="32:32">
+      <c r="AF68" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="46:46">
-      <c r="AT37" t="s">
+    <row r="69" spans="32:32">
+      <c r="AF69" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="46:46">
-      <c r="AT38" t="s">
+    <row r="70" spans="32:32">
+      <c r="AF70" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="39" spans="46:46">
-      <c r="AT39" t="s">
+    <row r="71" spans="32:32">
+      <c r="AF71" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="46:46">
-      <c r="AT40" t="s">
+    <row r="72" spans="32:32">
+      <c r="AF72" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="41" spans="46:46">
-      <c r="AT41" t="s">
+    <row r="73" spans="32:32">
+      <c r="AF73" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="42" spans="46:46">
-      <c r="AT42" t="s">
+    <row r="74" spans="32:32">
+      <c r="AF74" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="46:46">
-      <c r="AT43" t="s">
+    <row r="75" spans="32:32">
+      <c r="AF75" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="46:46">
-      <c r="AT44" t="s">
+    <row r="76" spans="32:32">
+      <c r="AF76" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="46:46">
-      <c r="AT45" t="s">
+    <row r="77" spans="32:32">
+      <c r="AF77" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="46:46">
-      <c r="AT46" t="s">
+    <row r="78" spans="32:32">
+      <c r="AF78" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="46:46">
-      <c r="AT47" t="s">
+    <row r="79" spans="32:32">
+      <c r="AF79" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="46:46">
-      <c r="AT48" t="s">
+    <row r="80" spans="32:32">
+      <c r="AF80" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="46:46">
-      <c r="AT49" t="s">
+    <row r="81" spans="32:32">
+      <c r="AF81" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="46:46">
-      <c r="AT50" t="s">
+    <row r="82" spans="32:32">
+      <c r="AF82" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="46:46">
-      <c r="AT51" t="s">
+    <row r="83" spans="32:32">
+      <c r="AF83" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="46:46">
-      <c r="AT52" t="s">
+    <row r="84" spans="32:32">
+      <c r="AF84" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="46:46">
-      <c r="AT53" t="s">
+    <row r="85" spans="32:32">
+      <c r="AF85" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="46:46">
-      <c r="AT54" t="s">
+    <row r="86" spans="32:32">
+      <c r="AF86" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="55" spans="46:46">
-      <c r="AT55" t="s">
+    <row r="87" spans="32:32">
+      <c r="AF87" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="46:46">
-      <c r="AT56" t="s">
+    <row r="88" spans="32:32">
+      <c r="AF88" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="46:46">
-      <c r="AT57" t="s">
+    <row r="89" spans="32:32">
+      <c r="AF89" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="46:46">
-      <c r="AT58" t="s">
+    <row r="90" spans="32:32">
+      <c r="AF90" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="46:46">
-      <c r="AT59" t="s">
+    <row r="91" spans="32:32">
+      <c r="AF91" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="46:46">
-      <c r="AT60" t="s">
+    <row r="92" spans="32:32">
+      <c r="AF92" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="46:46">
-      <c r="AT61" t="s">
+    <row r="93" spans="32:32">
+      <c r="AF93" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="46:46">
-      <c r="AT62" t="s">
+    <row r="94" spans="32:32">
+      <c r="AF94" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="46:46">
-      <c r="AT63" t="s">
+    <row r="95" spans="32:32">
+      <c r="AF95" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="46:46">
-      <c r="AT64" t="s">
+    <row r="96" spans="32:32">
+      <c r="AF96" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="46:46">
-      <c r="AT65" t="s">
+    <row r="97" spans="32:32">
+      <c r="AF97" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="46:46">
-      <c r="AT66" t="s">
+    <row r="98" spans="32:32">
+      <c r="AF98" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="46:46">
-      <c r="AT67" t="s">
+    <row r="99" spans="32:32">
+      <c r="AF99" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="46:46">
-      <c r="AT68" t="s">
+    <row r="100" spans="32:32">
+      <c r="AF100" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="46:46">
-      <c r="AT69" t="s">
+    <row r="101" spans="32:32">
+      <c r="AF101" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="46:46">
-      <c r="AT70" t="s">
+    <row r="102" spans="32:32">
+      <c r="AF102" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="46:46">
-      <c r="AT71" t="s">
+    <row r="103" spans="32:32">
+      <c r="AF103" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="46:46">
-      <c r="AT72" t="s">
+    <row r="104" spans="32:32">
+      <c r="AF104" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="46:46">
-      <c r="AT73" t="s">
+    <row r="105" spans="32:32">
+      <c r="AF105" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="46:46">
-      <c r="AT74" t="s">
+    <row r="106" spans="32:32">
+      <c r="AF106" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="46:46">
-      <c r="AT75" t="s">
+    <row r="107" spans="32:32">
+      <c r="AF107" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="46:46">
-      <c r="AT76" t="s">
+    <row r="108" spans="32:32">
+      <c r="AF108" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="46:46">
-      <c r="AT77" t="s">
+    <row r="109" spans="32:32">
+      <c r="AF109" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="46:46">
-      <c r="AT78" t="s">
+    <row r="110" spans="32:32">
+      <c r="AF110" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="46:46">
-      <c r="AT79" t="s">
+    <row r="111" spans="32:32">
+      <c r="AF111" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="80" spans="46:46">
-      <c r="AT80" t="s">
+    <row r="112" spans="32:32">
+      <c r="AF112" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="46:46">
-      <c r="AT81" t="s">
+    <row r="113" spans="32:32">
+      <c r="AF113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="46:46">
-      <c r="AT82" t="s">
+    <row r="114" spans="32:32">
+      <c r="AF114" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="46:46">
-      <c r="AT83" t="s">
+    <row r="115" spans="32:32">
+      <c r="AF115" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="46:46">
-      <c r="AT84" t="s">
+    <row r="116" spans="32:32">
+      <c r="AF116" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="46:46">
-      <c r="AT85" t="s">
+    <row r="117" spans="32:32">
+      <c r="AF117" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="46:46">
-      <c r="AT86" t="s">
+    <row r="118" spans="32:32">
+      <c r="AF118" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="46:46">
-      <c r="AT87" t="s">
+    <row r="119" spans="32:32">
+      <c r="AF119" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="88" spans="46:46">
-      <c r="AT88" t="s">
+    <row r="120" spans="32:32">
+      <c r="AF120" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="89" spans="46:46">
-      <c r="AT89" t="s">
+    <row r="121" spans="32:32">
+      <c r="AF121" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="90" spans="46:46">
-      <c r="AT90" t="s">
+    <row r="122" spans="32:32">
+      <c r="AF122" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="91" spans="46:46">
-      <c r="AT91" t="s">
+    <row r="123" spans="32:32">
+      <c r="AF123" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="46:46">
-      <c r="AT92" t="s">
+    <row r="124" spans="32:32">
+      <c r="AF124" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="93" spans="46:46">
-      <c r="AT93" t="s">
+    <row r="125" spans="32:32">
+      <c r="AF125" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="46:46">
-      <c r="AT94" t="s">
+    <row r="126" spans="32:32">
+      <c r="AF126" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="95" spans="46:46">
-      <c r="AT95" t="s">
+    <row r="127" spans="32:32">
+      <c r="AF127" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="46:46">
-      <c r="AT96" t="s">
+    <row r="128" spans="32:32">
+      <c r="AF128" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="46:46">
-      <c r="AT97" t="s">
+    <row r="129" spans="32:32">
+      <c r="AF129" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="98" spans="46:46">
-      <c r="AT98" t="s">
+    <row r="130" spans="32:32">
+      <c r="AF130" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="46:46">
-      <c r="AT99" t="s">
+    <row r="131" spans="32:32">
+      <c r="AF131" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="100" spans="46:46">
-      <c r="AT100" t="s">
+    <row r="132" spans="32:32">
+      <c r="AF132" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="101" spans="46:46">
-      <c r="AT101" t="s">
+    <row r="133" spans="32:32">
+      <c r="AF133" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="46:46">
-      <c r="AT102" t="s">
+    <row r="134" spans="32:32">
+      <c r="AF134" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="103" spans="46:46">
-      <c r="AT103" t="s">
+    <row r="135" spans="32:32">
+      <c r="AF135" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="104" spans="46:46">
-      <c r="AT104" t="s">
+    <row r="136" spans="32:32">
+      <c r="AF136" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="105" spans="46:46">
-      <c r="AT105" t="s">
+    <row r="137" spans="32:32">
+      <c r="AF137" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="46:46">
-      <c r="AT106" t="s">
+    <row r="138" spans="32:32">
+      <c r="AF138" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="46:46">
-      <c r="AT107" t="s">
+    <row r="139" spans="32:32">
+      <c r="AF139" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="46:46">
-      <c r="AT108" t="s">
+    <row r="140" spans="32:32">
+      <c r="AF140" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="46:46">
-      <c r="AT109" t="s">
+    <row r="141" spans="32:32">
+      <c r="AF141" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="110" spans="46:46">
-      <c r="AT110" t="s">
+    <row r="142" spans="32:32">
+      <c r="AF142" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="111" spans="46:46">
-      <c r="AT111" t="s">
+    <row r="143" spans="32:32">
+      <c r="AF143" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="112" spans="46:46">
-      <c r="AT112" t="s">
+    <row r="144" spans="32:32">
+      <c r="AF144" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="46:46">
-      <c r="AT113" t="s">
+    <row r="145" spans="32:32">
+      <c r="AF145" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="114" spans="46:46">
-      <c r="AT114" t="s">
+    <row r="146" spans="32:32">
+      <c r="AF146" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="46:46">
-      <c r="AT115" t="s">
+    <row r="147" spans="32:32">
+      <c r="AF147" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="46:46">
-      <c r="AT116" t="s">
+    <row r="148" spans="32:32">
+      <c r="AF148" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="46:46">
-      <c r="AT117" t="s">
+    <row r="149" spans="32:32">
+      <c r="AF149" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="118" spans="46:46">
-      <c r="AT118" t="s">
+    <row r="150" spans="32:32">
+      <c r="AF150" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="46:46">
-      <c r="AT119" t="s">
+    <row r="151" spans="32:32">
+      <c r="AF151" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="46:46">
-      <c r="AT120" t="s">
+    <row r="152" spans="32:32">
+      <c r="AF152" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="121" spans="46:46">
-      <c r="AT121" t="s">
+    <row r="153" spans="32:32">
+      <c r="AF153" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="46:46">
-      <c r="AT122" t="s">
+    <row r="154" spans="32:32">
+      <c r="AF154" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="46:46">
-      <c r="AT123" t="s">
+    <row r="155" spans="32:32">
+      <c r="AF155" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="124" spans="46:46">
-      <c r="AT124" t="s">
+    <row r="156" spans="32:32">
+      <c r="AF156" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="125" spans="46:46">
-      <c r="AT125" t="s">
+    <row r="157" spans="32:32">
+      <c r="AF157" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="126" spans="46:46">
-      <c r="AT126" t="s">
+    <row r="158" spans="32:32">
+      <c r="AF158" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="46:46">
-      <c r="AT127" t="s">
+    <row r="159" spans="32:32">
+      <c r="AF159" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="128" spans="46:46">
-      <c r="AT128" t="s">
+    <row r="160" spans="32:32">
+      <c r="AF160" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="129" spans="46:46">
-      <c r="AT129" t="s">
+    <row r="161" spans="32:32">
+      <c r="AF161" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="130" spans="46:46">
-      <c r="AT130" t="s">
+    <row r="162" spans="32:32">
+      <c r="AF162" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="131" spans="46:46">
-      <c r="AT131" t="s">
+    <row r="163" spans="32:32">
+      <c r="AF163" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="132" spans="46:46">
-      <c r="AT132" t="s">
+    <row r="164" spans="32:32">
+      <c r="AF164" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="133" spans="46:46">
-      <c r="AT133" t="s">
+    <row r="165" spans="32:32">
+      <c r="AF165" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="46:46">
-      <c r="AT134" t="s">
+    <row r="166" spans="32:32">
+      <c r="AF166" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="46:46">
-      <c r="AT135" t="s">
+    <row r="167" spans="32:32">
+      <c r="AF167" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="46:46">
-      <c r="AT136" t="s">
+    <row r="168" spans="32:32">
+      <c r="AF168" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="46:46">
-      <c r="AT137" t="s">
+    <row r="169" spans="32:32">
+      <c r="AF169" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="46:46">
-      <c r="AT138" t="s">
+    <row r="170" spans="32:32">
+      <c r="AF170" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="139" spans="46:46">
-      <c r="AT139" t="s">
+    <row r="171" spans="32:32">
+      <c r="AF171" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="140" spans="46:46">
-      <c r="AT140" t="s">
+    <row r="172" spans="32:32">
+      <c r="AF172" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="141" spans="46:46">
-      <c r="AT141" t="s">
+    <row r="173" spans="32:32">
+      <c r="AF173" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="142" spans="46:46">
-      <c r="AT142" t="s">
+    <row r="174" spans="32:32">
+      <c r="AF174" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="46:46">
-      <c r="AT143" t="s">
+    <row r="175" spans="32:32">
+      <c r="AF175" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="144" spans="46:46">
-      <c r="AT144" t="s">
+    <row r="176" spans="32:32">
+      <c r="AF176" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="46:46">
-      <c r="AT145" t="s">
+    <row r="177" spans="32:32">
+      <c r="AF177" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="146" spans="46:46">
-      <c r="AT146" t="s">
+    <row r="178" spans="32:32">
+      <c r="AF178" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="147" spans="46:46">
-      <c r="AT147" t="s">
+    <row r="179" spans="32:32">
+      <c r="AF179" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="148" spans="46:46">
-      <c r="AT148" t="s">
+    <row r="180" spans="32:32">
+      <c r="AF180" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="46:46">
-      <c r="AT149" t="s">
+    <row r="181" spans="32:32">
+      <c r="AF181" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="150" spans="46:46">
-      <c r="AT150" t="s">
+    <row r="182" spans="32:32">
+      <c r="AF182" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="151" spans="46:46">
-      <c r="AT151" t="s">
+    <row r="183" spans="32:32">
+      <c r="AF183" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="152" spans="46:46">
-      <c r="AT152" t="s">
+    <row r="184" spans="32:32">
+      <c r="AF184" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="46:46">
-      <c r="AT153" t="s">
+    <row r="185" spans="32:32">
+      <c r="AF185" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="154" spans="46:46">
-      <c r="AT154" t="s">
+    <row r="186" spans="32:32">
+      <c r="AF186" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="155" spans="46:46">
-      <c r="AT155" t="s">
+    <row r="187" spans="32:32">
+      <c r="AF187" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="156" spans="46:46">
-      <c r="AT156" t="s">
+    <row r="188" spans="32:32">
+      <c r="AF188" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="157" spans="46:46">
-      <c r="AT157" t="s">
+    <row r="189" spans="32:32">
+      <c r="AF189" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="158" spans="46:46">
-      <c r="AT158" t="s">
+    <row r="190" spans="32:32">
+      <c r="AF190" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="159" spans="46:46">
-      <c r="AT159" t="s">
+    <row r="191" spans="32:32">
+      <c r="AF191" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="160" spans="46:46">
-      <c r="AT160" t="s">
+    <row r="192" spans="32:32">
+      <c r="AF192" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="161" spans="46:46">
-      <c r="AT161" t="s">
+    <row r="193" spans="32:32">
+      <c r="AF193" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="162" spans="46:46">
-      <c r="AT162" t="s">
+    <row r="194" spans="32:32">
+      <c r="AF194" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="163" spans="46:46">
-      <c r="AT163" t="s">
+    <row r="195" spans="32:32">
+      <c r="AF195" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="164" spans="46:46">
-      <c r="AT164" t="s">
+    <row r="196" spans="32:32">
+      <c r="AF196" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="165" spans="46:46">
-      <c r="AT165" t="s">
+    <row r="197" spans="32:32">
+      <c r="AF197" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="166" spans="46:46">
-      <c r="AT166" t="s">
+    <row r="198" spans="32:32">
+      <c r="AF198" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="167" spans="46:46">
-      <c r="AT167" t="s">
+    <row r="199" spans="32:32">
+      <c r="AF199" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="168" spans="46:46">
-      <c r="AT168" t="s">
+    <row r="200" spans="32:32">
+      <c r="AF200" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="169" spans="46:46">
-      <c r="AT169" t="s">
+    <row r="201" spans="32:32">
+      <c r="AF201" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="170" spans="46:46">
-      <c r="AT170" t="s">
+    <row r="202" spans="32:32">
+      <c r="AF202" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="171" spans="46:46">
-      <c r="AT171" t="s">
+    <row r="203" spans="32:32">
+      <c r="AF203" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="172" spans="46:46">
-      <c r="AT172" t="s">
+    <row r="204" spans="32:32">
+      <c r="AF204" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="173" spans="46:46">
-      <c r="AT173" t="s">
+    <row r="205" spans="32:32">
+      <c r="AF205" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="174" spans="46:46">
-      <c r="AT174" t="s">
+    <row r="206" spans="32:32">
+      <c r="AF206" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="46:46">
-      <c r="AT175" t="s">
+    <row r="207" spans="32:32">
+      <c r="AF207" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="176" spans="46:46">
-      <c r="AT176" t="s">
+    <row r="208" spans="32:32">
+      <c r="AF208" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="177" spans="46:46">
-      <c r="AT177" t="s">
+    <row r="209" spans="32:32">
+      <c r="AF209" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="178" spans="46:46">
-      <c r="AT178" t="s">
+    <row r="210" spans="32:32">
+      <c r="AF210" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="179" spans="46:46">
-      <c r="AT179" t="s">
+    <row r="211" spans="32:32">
+      <c r="AF211" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="180" spans="46:46">
-      <c r="AT180" t="s">
+    <row r="212" spans="32:32">
+      <c r="AF212" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="181" spans="46:46">
-      <c r="AT181" t="s">
+    <row r="213" spans="32:32">
+      <c r="AF213" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="182" spans="46:46">
-      <c r="AT182" t="s">
+    <row r="214" spans="32:32">
+      <c r="AF214" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="46:46">
-      <c r="AT183" t="s">
+    <row r="215" spans="32:32">
+      <c r="AF215" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="184" spans="46:46">
-      <c r="AT184" t="s">
+    <row r="216" spans="32:32">
+      <c r="AF216" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="46:46">
-      <c r="AT185" t="s">
+    <row r="217" spans="32:32">
+      <c r="AF217" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="186" spans="46:46">
-      <c r="AT186" t="s">
+    <row r="218" spans="32:32">
+      <c r="AF218" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="187" spans="46:46">
-      <c r="AT187" t="s">
+    <row r="219" spans="32:32">
+      <c r="AF219" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="188" spans="46:46">
-      <c r="AT188" t="s">
+    <row r="220" spans="32:32">
+      <c r="AF220" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="189" spans="46:46">
-      <c r="AT189" t="s">
+    <row r="221" spans="32:32">
+      <c r="AF221" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="190" spans="46:46">
-      <c r="AT190" t="s">
+    <row r="222" spans="32:32">
+      <c r="AF222" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="191" spans="46:46">
-      <c r="AT191" t="s">
+    <row r="223" spans="32:32">
+      <c r="AF223" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="192" spans="46:46">
-      <c r="AT192" t="s">
+    <row r="224" spans="32:32">
+      <c r="AF224" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="193" spans="46:46">
-      <c r="AT193" t="s">
+    <row r="225" spans="32:32">
+      <c r="AF225" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="194" spans="46:46">
-      <c r="AT194" t="s">
+    <row r="226" spans="32:32">
+      <c r="AF226" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="195" spans="46:46">
-      <c r="AT195" t="s">
+    <row r="227" spans="32:32">
+      <c r="AF227" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="196" spans="46:46">
-      <c r="AT196" t="s">
+    <row r="228" spans="32:32">
+      <c r="AF228" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="197" spans="46:46">
-      <c r="AT197" t="s">
+    <row r="229" spans="32:32">
+      <c r="AF229" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="198" spans="46:46">
-      <c r="AT198" t="s">
+    <row r="230" spans="32:32">
+      <c r="AF230" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="199" spans="46:46">
-      <c r="AT199" t="s">
+    <row r="231" spans="32:32">
+      <c r="AF231" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="200" spans="46:46">
-      <c r="AT200" t="s">
+    <row r="232" spans="32:32">
+      <c r="AF232" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="201" spans="46:46">
-      <c r="AT201" t="s">
+    <row r="233" spans="32:32">
+      <c r="AF233" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="202" spans="46:46">
-      <c r="AT202" t="s">
+    <row r="234" spans="32:32">
+      <c r="AF234" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="203" spans="46:46">
-      <c r="AT203" t="s">
+    <row r="235" spans="32:32">
+      <c r="AF235" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="204" spans="46:46">
-      <c r="AT204" t="s">
+    <row r="236" spans="32:32">
+      <c r="AF236" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="205" spans="46:46">
-      <c r="AT205" t="s">
+    <row r="237" spans="32:32">
+      <c r="AF237" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="206" spans="46:46">
-      <c r="AT206" t="s">
+    <row r="238" spans="32:32">
+      <c r="AF238" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="207" spans="46:46">
-      <c r="AT207" t="s">
+    <row r="239" spans="32:32">
+      <c r="AF239" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="208" spans="46:46">
-      <c r="AT208" t="s">
+    <row r="240" spans="32:32">
+      <c r="AF240" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="209" spans="46:46">
-      <c r="AT209" t="s">
+    <row r="241" spans="32:32">
+      <c r="AF241" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="210" spans="46:46">
-      <c r="AT210" t="s">
+    <row r="242" spans="32:32">
+      <c r="AF242" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="211" spans="46:46">
-      <c r="AT211" t="s">
+    <row r="243" spans="32:32">
+      <c r="AF243" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="212" spans="46:46">
-      <c r="AT212" t="s">
+    <row r="244" spans="32:32">
+      <c r="AF244" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="213" spans="46:46">
-      <c r="AT213" t="s">
+    <row r="245" spans="32:32">
+      <c r="AF245" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="214" spans="46:46">
-      <c r="AT214" t="s">
+    <row r="246" spans="32:32">
+      <c r="AF246" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="215" spans="46:46">
-      <c r="AT215" t="s">
+    <row r="247" spans="32:32">
+      <c r="AF247" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="216" spans="46:46">
-      <c r="AT216" t="s">
+    <row r="248" spans="32:32">
+      <c r="AF248" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="217" spans="46:46">
-      <c r="AT217" t="s">
+    <row r="249" spans="32:32">
+      <c r="AF249" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="218" spans="46:46">
-      <c r="AT218" t="s">
+    <row r="250" spans="32:32">
+      <c r="AF250" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="219" spans="46:46">
-      <c r="AT219" t="s">
+    <row r="251" spans="32:32">
+      <c r="AF251" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="220" spans="46:46">
-      <c r="AT220" t="s">
+    <row r="252" spans="32:32">
+      <c r="AF252" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="221" spans="46:46">
-      <c r="AT221" t="s">
+    <row r="253" spans="32:32">
+      <c r="AF253" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="222" spans="46:46">
-      <c r="AT222" t="s">
+    <row r="254" spans="32:32">
+      <c r="AF254" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="223" spans="46:46">
-      <c r="AT223" t="s">
+    <row r="255" spans="32:32">
+      <c r="AF255" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="224" spans="46:46">
-      <c r="AT224" t="s">
+    <row r="256" spans="32:32">
+      <c r="AF256" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="225" spans="46:46">
-      <c r="AT225" t="s">
+    <row r="257" spans="32:32">
+      <c r="AF257" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="226" spans="46:46">
-      <c r="AT226" t="s">
+    <row r="258" spans="32:32">
+      <c r="AF258" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="227" spans="46:46">
-      <c r="AT227" t="s">
+    <row r="259" spans="32:32">
+      <c r="AF259" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="228" spans="46:46">
-      <c r="AT228" t="s">
+    <row r="260" spans="32:32">
+      <c r="AF260" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="229" spans="46:46">
-      <c r="AT229" t="s">
+    <row r="261" spans="32:32">
+      <c r="AF261" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="46:46">
-      <c r="AT230" t="s">
+    <row r="262" spans="32:32">
+      <c r="AF262" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="231" spans="46:46">
-      <c r="AT231" t="s">
+    <row r="263" spans="32:32">
+      <c r="AF263" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="232" spans="46:46">
-      <c r="AT232" t="s">
+    <row r="264" spans="32:32">
+      <c r="AF264" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="46:46">
-      <c r="AT233" t="s">
+    <row r="265" spans="32:32">
+      <c r="AF265" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="234" spans="46:46">
-      <c r="AT234" t="s">
+    <row r="266" spans="32:32">
+      <c r="AF266" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="235" spans="46:46">
-      <c r="AT235" t="s">
+    <row r="267" spans="32:32">
+      <c r="AF267" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="236" spans="46:46">
-      <c r="AT236" t="s">
+    <row r="268" spans="32:32">
+      <c r="AF268" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="237" spans="46:46">
-      <c r="AT237" t="s">
+    <row r="269" spans="32:32">
+      <c r="AF269" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="238" spans="46:46">
-      <c r="AT238" t="s">
+    <row r="270" spans="32:32">
+      <c r="AF270" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="239" spans="46:46">
-      <c r="AT239" t="s">
+    <row r="271" spans="32:32">
+      <c r="AF271" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="240" spans="46:46">
-      <c r="AT240" t="s">
+    <row r="272" spans="32:32">
+      <c r="AF272" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="241" spans="46:46">
-      <c r="AT241" t="s">
+    <row r="273" spans="32:32">
+      <c r="AF273" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="46:46">
-      <c r="AT242" t="s">
+    <row r="274" spans="32:32">
+      <c r="AF274" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="243" spans="46:46">
-      <c r="AT243" t="s">
+    <row r="275" spans="32:32">
+      <c r="AF275" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="244" spans="46:46">
-      <c r="AT244" t="s">
+    <row r="276" spans="32:32">
+      <c r="AF276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="245" spans="46:46">
-      <c r="AT245" t="s">
+    <row r="277" spans="32:32">
+      <c r="AF277" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="246" spans="46:46">
-      <c r="AT246" t="s">
+    <row r="278" spans="32:32">
+      <c r="AF278" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="247" spans="46:46">
-      <c r="AT247" t="s">
+    <row r="279" spans="32:32">
+      <c r="AF279" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="248" spans="46:46">
-      <c r="AT248" t="s">
+    <row r="280" spans="32:32">
+      <c r="AF280" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="249" spans="46:46">
-      <c r="AT249" t="s">
+    <row r="281" spans="32:32">
+      <c r="AF281" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="250" spans="46:46">
-      <c r="AT250" t="s">
+    <row r="282" spans="32:32">
+      <c r="AF282" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="251" spans="46:46">
-      <c r="AT251" t="s">
+    <row r="283" spans="32:32">
+      <c r="AF283" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="252" spans="46:46">
-      <c r="AT252" t="s">
+    <row r="284" spans="32:32">
+      <c r="AF284" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="253" spans="46:46">
-      <c r="AT253" t="s">
+    <row r="285" spans="32:32">
+      <c r="AF285" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="254" spans="46:46">
-      <c r="AT254" t="s">
+    <row r="286" spans="32:32">
+      <c r="AF286" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="255" spans="46:46">
-      <c r="AT255" t="s">
+    <row r="287" spans="32:32">
+      <c r="AF287" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="256" spans="46:46">
-      <c r="AT256" t="s">
+    <row r="288" spans="32:32">
+      <c r="AF288" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="257" spans="46:46">
-      <c r="AT257" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="258" spans="46:46">
-      <c r="AT258" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="259" spans="46:46">
-      <c r="AT259" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="260" spans="46:46">
-      <c r="AT260" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="261" spans="46:46">
-      <c r="AT261" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="262" spans="46:46">
-      <c r="AT262" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="263" spans="46:46">
-      <c r="AT263" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="264" spans="46:46">
-      <c r="AT264" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="265" spans="46:46">
-      <c r="AT265" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="266" spans="46:46">
-      <c r="AT266" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="267" spans="46:46">
-      <c r="AT267" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="268" spans="46:46">
-      <c r="AT268" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="269" spans="46:46">
-      <c r="AT269" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="270" spans="46:46">
-      <c r="AT270" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="271" spans="46:46">
-      <c r="AT271" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="272" spans="46:46">
-      <c r="AT272" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="273" spans="46:46">
-      <c r="AT273" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="274" spans="46:46">
-      <c r="AT274" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="275" spans="46:46">
-      <c r="AT275" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="276" spans="46:46">
-      <c r="AT276" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="277" spans="46:46">
-      <c r="AT277" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="278" spans="46:46">
-      <c r="AT278" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="279" spans="46:46">
-      <c r="AT279" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="280" spans="46:46">
-      <c r="AT280" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="281" spans="46:46">
-      <c r="AT281" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="282" spans="46:46">
-      <c r="AT282" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="283" spans="46:46">
-      <c r="AT283" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="284" spans="46:46">
-      <c r="AT284" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="285" spans="46:46">
-      <c r="AT285" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="286" spans="46:46">
-      <c r="AT286" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="287" spans="46:46">
-      <c r="AT287" t="s">
-        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="694">
   <si>
     <t>alias</t>
   </si>
@@ -1230,12 +1230,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2113,12 +2113,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -3638,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3647,7 +3641,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3834,11 +3828,8 @@
       <c r="BJ1" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4024,9 +4015,6 @@
       </c>
       <c r="BJ2" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="695">
   <si>
     <t>alias</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3649,372 +3652,372 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -4058,104 +4061,104 @@
   <sheetData>
     <row r="1" spans="5:60">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AV1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="BF1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BH1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="5:60">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AV2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="BF2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BH2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="5:60">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AV3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="BH3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="5:60">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AV4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="BH4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="5:60">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BH5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="5:60">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BH6" t="s">
         <v>116</v>
@@ -4163,1415 +4166,1415 @@
     </row>
     <row r="7" spans="5:60">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="5:60">
       <c r="AF8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="5:60">
       <c r="AF9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="5:60">
       <c r="AF10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="5:60">
       <c r="AF11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="5:60">
       <c r="AF12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="5:60">
       <c r="AF13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="5:60">
       <c r="AF14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="5:60">
       <c r="AF15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="5:60">
       <c r="AF16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="32:32">
       <c r="AF17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="32:32">
       <c r="AF18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="32:32">
       <c r="AF19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="32:32">
       <c r="AF20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="32:32">
       <c r="AF21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="32:32">
       <c r="AF22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="32:32">
       <c r="AF23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="32:32">
       <c r="AF24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="32:32">
       <c r="AF25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="32:32">
       <c r="AF26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="32:32">
       <c r="AF27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="32:32">
       <c r="AF28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="32:32">
       <c r="AF29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="32:32">
       <c r="AF30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="32:32">
       <c r="AF31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="32:32">
       <c r="AF32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="32:32">
       <c r="AF33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="32:32">
       <c r="AF34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="32:32">
       <c r="AF35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="32:32">
       <c r="AF36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="32:32">
       <c r="AF37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="32:32">
       <c r="AF38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="32:32">
       <c r="AF39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="32:32">
       <c r="AF40" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="32:32">
       <c r="AF41" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="32:32">
       <c r="AF42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="32:32">
       <c r="AF43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="32:32">
       <c r="AF44" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="32:32">
       <c r="AF45" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="32:32">
       <c r="AF46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="32:32">
       <c r="AF47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="32:32">
       <c r="AF48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="32:32">
       <c r="AF49" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="32:32">
       <c r="AF50" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="32:32">
       <c r="AF51" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="32:32">
       <c r="AF52" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="32:32">
       <c r="AF53" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="32:32">
       <c r="AF54" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="32:32">
       <c r="AF55" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="32:32">
       <c r="AF56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="32:32">
       <c r="AF57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="32:32">
       <c r="AF58" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="32:32">
       <c r="AF59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="32:32">
       <c r="AF60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="32:32">
       <c r="AF61" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="32:32">
       <c r="AF62" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="32:32">
       <c r="AF63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="32:32">
       <c r="AF64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="32:32">
       <c r="AF65" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="32:32">
       <c r="AF66" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="32:32">
       <c r="AF67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="32:32">
       <c r="AF68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="32:32">
       <c r="AF69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="32:32">
       <c r="AF70" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="32:32">
       <c r="AF71" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="32:32">
       <c r="AF72" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="32:32">
       <c r="AF73" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="32:32">
       <c r="AF74" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="32:32">
       <c r="AF75" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="32:32">
       <c r="AF76" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="32:32">
       <c r="AF77" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="32:32">
       <c r="AF78" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="32:32">
       <c r="AF79" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="32:32">
       <c r="AF80" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="32:32">
       <c r="AF81" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="32:32">
       <c r="AF82" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83" spans="32:32">
       <c r="AF83" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="32:32">
       <c r="AF84" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="32:32">
       <c r="AF85" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="32:32">
       <c r="AF86" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="32:32">
       <c r="AF87" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="32:32">
       <c r="AF88" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="32:32">
       <c r="AF89" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="32:32">
       <c r="AF90" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="32:32">
       <c r="AF91" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="32:32">
       <c r="AF92" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="32:32">
       <c r="AF93" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="32:32">
       <c r="AF94" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="32:32">
       <c r="AF95" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="32:32">
       <c r="AF96" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="32:32">
       <c r="AF97" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="32:32">
       <c r="AF98" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="32:32">
       <c r="AF99" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="32:32">
       <c r="AF100" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="32:32">
       <c r="AF101" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="32:32">
       <c r="AF102" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="32:32">
       <c r="AF103" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="104" spans="32:32">
       <c r="AF104" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="32:32">
       <c r="AF105" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="106" spans="32:32">
       <c r="AF106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="32:32">
       <c r="AF107" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="32:32">
       <c r="AF108" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="32:32">
       <c r="AF109" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="32:32">
       <c r="AF110" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="32:32">
       <c r="AF111" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="32:32">
       <c r="AF112" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="32:32">
       <c r="AF113" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="32:32">
       <c r="AF114" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="32:32">
       <c r="AF115" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="32:32">
       <c r="AF116" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="32:32">
       <c r="AF117" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="32:32">
       <c r="AF118" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="32:32">
       <c r="AF119" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="32:32">
       <c r="AF120" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="32:32">
       <c r="AF121" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="32:32">
       <c r="AF122" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="32:32">
       <c r="AF123" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="32:32">
       <c r="AF124" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="32:32">
       <c r="AF125" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="32:32">
       <c r="AF126" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="127" spans="32:32">
       <c r="AF127" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="32:32">
       <c r="AF128" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="32:32">
       <c r="AF129" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="32:32">
       <c r="AF130" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="32:32">
       <c r="AF131" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="32:32">
       <c r="AF132" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="32:32">
       <c r="AF133" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="32:32">
       <c r="AF134" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="32:32">
       <c r="AF135" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="32:32">
       <c r="AF136" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="137" spans="32:32">
       <c r="AF137" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="138" spans="32:32">
       <c r="AF138" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="32:32">
       <c r="AF139" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="32:32">
       <c r="AF140" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="32:32">
       <c r="AF141" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142" spans="32:32">
       <c r="AF142" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="32:32">
       <c r="AF143" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="32:32">
       <c r="AF144" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" spans="32:32">
       <c r="AF145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="146" spans="32:32">
       <c r="AF146" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="147" spans="32:32">
       <c r="AF147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="32:32">
       <c r="AF148" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="32:32">
       <c r="AF149" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="32:32">
       <c r="AF150" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="32:32">
       <c r="AF151" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="32:32">
       <c r="AF152" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="32:32">
       <c r="AF153" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="32:32">
       <c r="AF154" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="32:32">
       <c r="AF155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="32:32">
       <c r="AF156" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="32:32">
       <c r="AF157" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" spans="32:32">
       <c r="AF158" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="159" spans="32:32">
       <c r="AF159" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="32:32">
       <c r="AF160" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="32:32">
       <c r="AF161" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" spans="32:32">
       <c r="AF162" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="32:32">
       <c r="AF163" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="32:32">
       <c r="AF164" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="32:32">
       <c r="AF165" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="32:32">
       <c r="AF166" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="32:32">
       <c r="AF167" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="32:32">
       <c r="AF168" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="32:32">
       <c r="AF169" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="170" spans="32:32">
       <c r="AF170" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="171" spans="32:32">
       <c r="AF171" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="32:32">
       <c r="AF172" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="32:32">
       <c r="AF173" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="174" spans="32:32">
       <c r="AF174" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="175" spans="32:32">
       <c r="AF175" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="32:32">
       <c r="AF176" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="177" spans="32:32">
       <c r="AF177" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="32:32">
       <c r="AF178" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="32:32">
       <c r="AF179" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="180" spans="32:32">
       <c r="AF180" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="181" spans="32:32">
       <c r="AF181" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" spans="32:32">
       <c r="AF182" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="32:32">
       <c r="AF183" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="32:32">
       <c r="AF184" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="32:32">
       <c r="AF185" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" spans="32:32">
       <c r="AF186" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="32:32">
       <c r="AF187" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="32:32">
       <c r="AF188" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="32:32">
       <c r="AF189" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="190" spans="32:32">
       <c r="AF190" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="191" spans="32:32">
       <c r="AF191" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="32:32">
       <c r="AF192" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="32:32">
       <c r="AF193" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="32:32">
       <c r="AF194" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="32:32">
       <c r="AF195" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="32:32">
       <c r="AF196" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="197" spans="32:32">
       <c r="AF197" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="198" spans="32:32">
       <c r="AF198" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="32:32">
       <c r="AF199" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="200" spans="32:32">
       <c r="AF200" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="32:32">
       <c r="AF201" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="202" spans="32:32">
       <c r="AF202" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="203" spans="32:32">
       <c r="AF203" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="32:32">
       <c r="AF204" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="32:32">
       <c r="AF205" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="32:32">
       <c r="AF206" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="32:32">
       <c r="AF207" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="208" spans="32:32">
       <c r="AF208" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="209" spans="32:32">
       <c r="AF209" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="32:32">
       <c r="AF210" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="211" spans="32:32">
       <c r="AF211" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="212" spans="32:32">
       <c r="AF212" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="32:32">
       <c r="AF213" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="214" spans="32:32">
       <c r="AF214" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="32:32">
       <c r="AF215" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="216" spans="32:32">
       <c r="AF216" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="217" spans="32:32">
       <c r="AF217" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="32:32">
       <c r="AF218" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="219" spans="32:32">
       <c r="AF219" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="32:32">
       <c r="AF220" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="32:32">
       <c r="AF221" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="32:32">
       <c r="AF222" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="223" spans="32:32">
       <c r="AF223" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="224" spans="32:32">
       <c r="AF224" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="225" spans="32:32">
       <c r="AF225" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="226" spans="32:32">
       <c r="AF226" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="227" spans="32:32">
       <c r="AF227" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="32:32">
       <c r="AF228" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="32:32">
       <c r="AF229" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="32:32">
       <c r="AF230" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" spans="32:32">
       <c r="AF231" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" spans="32:32">
       <c r="AF232" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="233" spans="32:32">
       <c r="AF233" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="234" spans="32:32">
       <c r="AF234" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="32:32">
       <c r="AF235" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="236" spans="32:32">
       <c r="AF236" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="32:32">
       <c r="AF237" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="32:32">
       <c r="AF238" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="32:32">
       <c r="AF239" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="32:32">
       <c r="AF240" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="32:32">
       <c r="AF241" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="242" spans="32:32">
       <c r="AF242" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="243" spans="32:32">
       <c r="AF243" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="32:32">
       <c r="AF244" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="245" spans="32:32">
       <c r="AF245" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246" spans="32:32">
       <c r="AF246" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="32:32">
       <c r="AF247" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="248" spans="32:32">
       <c r="AF248" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="32:32">
       <c r="AF249" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="250" spans="32:32">
       <c r="AF250" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="251" spans="32:32">
       <c r="AF251" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="252" spans="32:32">
       <c r="AF252" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="253" spans="32:32">
       <c r="AF253" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="254" spans="32:32">
       <c r="AF254" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="255" spans="32:32">
       <c r="AF255" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="256" spans="32:32">
       <c r="AF256" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="257" spans="32:32">
       <c r="AF257" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="258" spans="32:32">
       <c r="AF258" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="259" spans="32:32">
       <c r="AF259" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="260" spans="32:32">
       <c r="AF260" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="261" spans="32:32">
       <c r="AF261" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="262" spans="32:32">
       <c r="AF262" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="263" spans="32:32">
       <c r="AF263" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="264" spans="32:32">
       <c r="AF264" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="265" spans="32:32">
       <c r="AF265" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="266" spans="32:32">
       <c r="AF266" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="267" spans="32:32">
       <c r="AF267" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="268" spans="32:32">
       <c r="AF268" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="269" spans="32:32">
       <c r="AF269" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" spans="32:32">
       <c r="AF270" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="271" spans="32:32">
       <c r="AF271" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="272" spans="32:32">
       <c r="AF272" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="273" spans="32:32">
       <c r="AF273" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="274" spans="32:32">
       <c r="AF274" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="275" spans="32:32">
       <c r="AF275" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="276" spans="32:32">
       <c r="AF276" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="277" spans="32:32">
       <c r="AF277" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="278" spans="32:32">
       <c r="AF278" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" spans="32:32">
       <c r="AF279" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="280" spans="32:32">
       <c r="AF280" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="281" spans="32:32">
       <c r="AF281" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="282" spans="32:32">
       <c r="AF282" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="283" spans="32:32">
       <c r="AF283" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="284" spans="32:32">
       <c r="AF284" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="285" spans="32:32">
       <c r="AF285" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="286" spans="32:32">
       <c r="AF286" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="287" spans="32:32">
       <c r="AF287" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="288" spans="32:32">
       <c r="AF288" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -117,7 +117,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -135,7 +135,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="696">
   <si>
     <t>alias</t>
   </si>
@@ -1041,6 +1041,60 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1869,6 +1923,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1909,60 +1966,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -3739,97 +3742,97 @@
         <v>332</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>622</v>
+        <v>334</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>624</v>
+        <v>336</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>626</v>
+        <v>338</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>628</v>
+        <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>630</v>
+        <v>342</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>632</v>
+        <v>344</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>634</v>
+        <v>346</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>636</v>
+        <v>348</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
@@ -3927,97 +3930,97 @@
         <v>333</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>623</v>
+        <v>335</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>625</v>
+        <v>337</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>627</v>
+        <v>339</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>629</v>
+        <v>341</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>631</v>
+        <v>343</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>633</v>
+        <v>345</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>635</v>
+        <v>347</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>637</v>
+        <v>349</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>639</v>
+        <v>351</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4037,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
       <formula1>assemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
@@ -4053,7 +4056,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BH288"/>
+  <dimension ref="E1:BH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4072,17 +4075,17 @@
       <c r="AA1" t="s">
         <v>321</v>
       </c>
-      <c r="AF1" t="s">
-        <v>334</v>
+      <c r="AO1" t="s">
+        <v>352</v>
       </c>
       <c r="AV1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="BF1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BH1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="5:60">
@@ -4098,17 +4101,17 @@
       <c r="AA2" t="s">
         <v>322</v>
       </c>
-      <c r="AF2" t="s">
-        <v>335</v>
+      <c r="AO2" t="s">
+        <v>353</v>
       </c>
       <c r="AV2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="BF2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BH2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="5:60">
@@ -4118,47 +4121,47 @@
       <c r="AA3" t="s">
         <v>323</v>
       </c>
-      <c r="AF3" t="s">
-        <v>336</v>
+      <c r="AO3" t="s">
+        <v>354</v>
       </c>
       <c r="AV3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="BH3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="5:60">
       <c r="E4" t="s">
         <v>269</v>
       </c>
-      <c r="AF4" t="s">
-        <v>337</v>
+      <c r="AO4" t="s">
+        <v>355</v>
       </c>
       <c r="AV4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="BH4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="5:60">
       <c r="E5" t="s">
         <v>270</v>
       </c>
-      <c r="AF5" t="s">
-        <v>338</v>
+      <c r="AO5" t="s">
+        <v>356</v>
       </c>
       <c r="BH5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="5:60">
       <c r="E6" t="s">
         <v>271</v>
       </c>
-      <c r="AF6" t="s">
-        <v>339</v>
+      <c r="AO6" t="s">
+        <v>357</v>
       </c>
       <c r="BH6" t="s">
         <v>116</v>
@@ -4168,1413 +4171,1418 @@
       <c r="E7" t="s">
         <v>272</v>
       </c>
-      <c r="AF7" t="s">
-        <v>340</v>
+      <c r="AO7" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="5:60">
-      <c r="AF8" t="s">
-        <v>341</v>
+      <c r="AO8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="5:60">
-      <c r="AF9" t="s">
-        <v>342</v>
+      <c r="AO9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="5:60">
-      <c r="AF10" t="s">
-        <v>343</v>
+      <c r="AO10" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="5:60">
-      <c r="AF11" t="s">
-        <v>344</v>
+      <c r="AO11" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="5:60">
-      <c r="AF12" t="s">
-        <v>345</v>
+      <c r="AO12" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="5:60">
-      <c r="AF13" t="s">
-        <v>346</v>
+      <c r="AO13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="5:60">
-      <c r="AF14" t="s">
-        <v>347</v>
+      <c r="AO14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="5:60">
-      <c r="AF15" t="s">
-        <v>348</v>
+      <c r="AO15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="5:60">
-      <c r="AF16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="32:32">
-      <c r="AF17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="32:32">
-      <c r="AF18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="32:32">
-      <c r="AF19" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="32:32">
-      <c r="AF20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="32:32">
-      <c r="AF21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="32:32">
-      <c r="AF22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="32:32">
-      <c r="AF23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="32:32">
-      <c r="AF24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="32:32">
-      <c r="AF25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="32:32">
-      <c r="AF26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="32:32">
-      <c r="AF27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="32:32">
-      <c r="AF28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="32:32">
-      <c r="AF29" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="30" spans="32:32">
-      <c r="AF30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="32:32">
-      <c r="AF31" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="32:32">
-      <c r="AF32" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="32:32">
-      <c r="AF33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="32:32">
-      <c r="AF34" t="s">
+      <c r="AO16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="32:32">
-      <c r="AF35" t="s">
+    <row r="17" spans="41:41">
+      <c r="AO17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="32:32">
-      <c r="AF36" t="s">
+    <row r="18" spans="41:41">
+      <c r="AO18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="32:32">
-      <c r="AF37" t="s">
+    <row r="19" spans="41:41">
+      <c r="AO19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="32:32">
-      <c r="AF38" t="s">
+    <row r="20" spans="41:41">
+      <c r="AO20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="32:32">
-      <c r="AF39" t="s">
+    <row r="21" spans="41:41">
+      <c r="AO21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="32:32">
-      <c r="AF40" t="s">
+    <row r="22" spans="41:41">
+      <c r="AO22" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="32:32">
-      <c r="AF41" t="s">
+    <row r="23" spans="41:41">
+      <c r="AO23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="32:32">
-      <c r="AF42" t="s">
+    <row r="24" spans="41:41">
+      <c r="AO24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="32:32">
-      <c r="AF43" t="s">
+    <row r="25" spans="41:41">
+      <c r="AO25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="32:32">
-      <c r="AF44" t="s">
+    <row r="26" spans="41:41">
+      <c r="AO26" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="32:32">
-      <c r="AF45" t="s">
+    <row r="27" spans="41:41">
+      <c r="AO27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="32:32">
-      <c r="AF46" t="s">
+    <row r="28" spans="41:41">
+      <c r="AO28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="32:32">
-      <c r="AF47" t="s">
+    <row r="29" spans="41:41">
+      <c r="AO29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="32:32">
-      <c r="AF48" t="s">
+    <row r="30" spans="41:41">
+      <c r="AO30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="32:32">
-      <c r="AF49" t="s">
+    <row r="31" spans="41:41">
+      <c r="AO31" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="32:32">
-      <c r="AF50" t="s">
+    <row r="32" spans="41:41">
+      <c r="AO32" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="32:32">
-      <c r="AF51" t="s">
+    <row r="33" spans="41:41">
+      <c r="AO33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="32:32">
-      <c r="AF52" t="s">
+    <row r="34" spans="41:41">
+      <c r="AO34" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="32:32">
-      <c r="AF53" t="s">
+    <row r="35" spans="41:41">
+      <c r="AO35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="32:32">
-      <c r="AF54" t="s">
+    <row r="36" spans="41:41">
+      <c r="AO36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="32:32">
-      <c r="AF55" t="s">
+    <row r="37" spans="41:41">
+      <c r="AO37" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="32:32">
-      <c r="AF56" t="s">
+    <row r="38" spans="41:41">
+      <c r="AO38" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="32:32">
-      <c r="AF57" t="s">
+    <row r="39" spans="41:41">
+      <c r="AO39" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="32:32">
-      <c r="AF58" t="s">
+    <row r="40" spans="41:41">
+      <c r="AO40" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="32:32">
-      <c r="AF59" t="s">
+    <row r="41" spans="41:41">
+      <c r="AO41" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="32:32">
-      <c r="AF60" t="s">
+    <row r="42" spans="41:41">
+      <c r="AO42" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="32:32">
-      <c r="AF61" t="s">
+    <row r="43" spans="41:41">
+      <c r="AO43" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="32:32">
-      <c r="AF62" t="s">
+    <row r="44" spans="41:41">
+      <c r="AO44" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="32:32">
-      <c r="AF63" t="s">
+    <row r="45" spans="41:41">
+      <c r="AO45" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="32:32">
-      <c r="AF64" t="s">
+    <row r="46" spans="41:41">
+      <c r="AO46" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="65" spans="32:32">
-      <c r="AF65" t="s">
+    <row r="47" spans="41:41">
+      <c r="AO47" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="32:32">
-      <c r="AF66" t="s">
+    <row r="48" spans="41:41">
+      <c r="AO48" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="32:32">
-      <c r="AF67" t="s">
+    <row r="49" spans="41:41">
+      <c r="AO49" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="32:32">
-      <c r="AF68" t="s">
+    <row r="50" spans="41:41">
+      <c r="AO50" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="32:32">
-      <c r="AF69" t="s">
+    <row r="51" spans="41:41">
+      <c r="AO51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="32:32">
-      <c r="AF70" t="s">
+    <row r="52" spans="41:41">
+      <c r="AO52" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="71" spans="32:32">
-      <c r="AF71" t="s">
+    <row r="53" spans="41:41">
+      <c r="AO53" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="32:32">
-      <c r="AF72" t="s">
+    <row r="54" spans="41:41">
+      <c r="AO54" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="32:32">
-      <c r="AF73" t="s">
+    <row r="55" spans="41:41">
+      <c r="AO55" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="32:32">
-      <c r="AF74" t="s">
+    <row r="56" spans="41:41">
+      <c r="AO56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="75" spans="32:32">
-      <c r="AF75" t="s">
+    <row r="57" spans="41:41">
+      <c r="AO57" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="32:32">
-      <c r="AF76" t="s">
+    <row r="58" spans="41:41">
+      <c r="AO58" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="32:32">
-      <c r="AF77" t="s">
+    <row r="59" spans="41:41">
+      <c r="AO59" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="32:32">
-      <c r="AF78" t="s">
+    <row r="60" spans="41:41">
+      <c r="AO60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="32:32">
-      <c r="AF79" t="s">
+    <row r="61" spans="41:41">
+      <c r="AO61" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="32:32">
-      <c r="AF80" t="s">
+    <row r="62" spans="41:41">
+      <c r="AO62" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="32:32">
-      <c r="AF81" t="s">
+    <row r="63" spans="41:41">
+      <c r="AO63" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="82" spans="32:32">
-      <c r="AF82" t="s">
+    <row r="64" spans="41:41">
+      <c r="AO64" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="32:32">
-      <c r="AF83" t="s">
+    <row r="65" spans="41:41">
+      <c r="AO65" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="32:32">
-      <c r="AF84" t="s">
+    <row r="66" spans="41:41">
+      <c r="AO66" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="32:32">
-      <c r="AF85" t="s">
+    <row r="67" spans="41:41">
+      <c r="AO67" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="32:32">
-      <c r="AF86" t="s">
+    <row r="68" spans="41:41">
+      <c r="AO68" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="87" spans="32:32">
-      <c r="AF87" t="s">
+    <row r="69" spans="41:41">
+      <c r="AO69" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="88" spans="32:32">
-      <c r="AF88" t="s">
+    <row r="70" spans="41:41">
+      <c r="AO70" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="32:32">
-      <c r="AF89" t="s">
+    <row r="71" spans="41:41">
+      <c r="AO71" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="90" spans="32:32">
-      <c r="AF90" t="s">
+    <row r="72" spans="41:41">
+      <c r="AO72" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="32:32">
-      <c r="AF91" t="s">
+    <row r="73" spans="41:41">
+      <c r="AO73" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="92" spans="32:32">
-      <c r="AF92" t="s">
+    <row r="74" spans="41:41">
+      <c r="AO74" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="93" spans="32:32">
-      <c r="AF93" t="s">
+    <row r="75" spans="41:41">
+      <c r="AO75" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="32:32">
-      <c r="AF94" t="s">
+    <row r="76" spans="41:41">
+      <c r="AO76" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="32:32">
-      <c r="AF95" t="s">
+    <row r="77" spans="41:41">
+      <c r="AO77" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="32:32">
-      <c r="AF96" t="s">
+    <row r="78" spans="41:41">
+      <c r="AO78" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="32:32">
-      <c r="AF97" t="s">
+    <row r="79" spans="41:41">
+      <c r="AO79" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="32:32">
-      <c r="AF98" t="s">
+    <row r="80" spans="41:41">
+      <c r="AO80" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="99" spans="32:32">
-      <c r="AF99" t="s">
+    <row r="81" spans="41:41">
+      <c r="AO81" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="32:32">
-      <c r="AF100" t="s">
+    <row r="82" spans="41:41">
+      <c r="AO82" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="32:32">
-      <c r="AF101" t="s">
+    <row r="83" spans="41:41">
+      <c r="AO83" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="32:32">
-      <c r="AF102" t="s">
+    <row r="84" spans="41:41">
+      <c r="AO84" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="32:32">
-      <c r="AF103" t="s">
+    <row r="85" spans="41:41">
+      <c r="AO85" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="104" spans="32:32">
-      <c r="AF104" t="s">
+    <row r="86" spans="41:41">
+      <c r="AO86" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="105" spans="32:32">
-      <c r="AF105" t="s">
+    <row r="87" spans="41:41">
+      <c r="AO87" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="32:32">
-      <c r="AF106" t="s">
+    <row r="88" spans="41:41">
+      <c r="AO88" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="107" spans="32:32">
-      <c r="AF107" t="s">
+    <row r="89" spans="41:41">
+      <c r="AO89" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="108" spans="32:32">
-      <c r="AF108" t="s">
+    <row r="90" spans="41:41">
+      <c r="AO90" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="32:32">
-      <c r="AF109" t="s">
+    <row r="91" spans="41:41">
+      <c r="AO91" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="32:32">
-      <c r="AF110" t="s">
+    <row r="92" spans="41:41">
+      <c r="AO92" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="32:32">
-      <c r="AF111" t="s">
+    <row r="93" spans="41:41">
+      <c r="AO93" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="112" spans="32:32">
-      <c r="AF112" t="s">
+    <row r="94" spans="41:41">
+      <c r="AO94" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="32:32">
-      <c r="AF113" t="s">
+    <row r="95" spans="41:41">
+      <c r="AO95" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="114" spans="32:32">
-      <c r="AF114" t="s">
+    <row r="96" spans="41:41">
+      <c r="AO96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="115" spans="32:32">
-      <c r="AF115" t="s">
+    <row r="97" spans="41:41">
+      <c r="AO97" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="116" spans="32:32">
-      <c r="AF116" t="s">
+    <row r="98" spans="41:41">
+      <c r="AO98" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="32:32">
-      <c r="AF117" t="s">
+    <row r="99" spans="41:41">
+      <c r="AO99" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="118" spans="32:32">
-      <c r="AF118" t="s">
+    <row r="100" spans="41:41">
+      <c r="AO100" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="119" spans="32:32">
-      <c r="AF119" t="s">
+    <row r="101" spans="41:41">
+      <c r="AO101" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="120" spans="32:32">
-      <c r="AF120" t="s">
+    <row r="102" spans="41:41">
+      <c r="AO102" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="121" spans="32:32">
-      <c r="AF121" t="s">
+    <row r="103" spans="41:41">
+      <c r="AO103" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="122" spans="32:32">
-      <c r="AF122" t="s">
+    <row r="104" spans="41:41">
+      <c r="AO104" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="123" spans="32:32">
-      <c r="AF123" t="s">
+    <row r="105" spans="41:41">
+      <c r="AO105" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="124" spans="32:32">
-      <c r="AF124" t="s">
+    <row r="106" spans="41:41">
+      <c r="AO106" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="125" spans="32:32">
-      <c r="AF125" t="s">
+    <row r="107" spans="41:41">
+      <c r="AO107" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="32:32">
-      <c r="AF126" t="s">
+    <row r="108" spans="41:41">
+      <c r="AO108" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="127" spans="32:32">
-      <c r="AF127" t="s">
+    <row r="109" spans="41:41">
+      <c r="AO109" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="32:32">
-      <c r="AF128" t="s">
+    <row r="110" spans="41:41">
+      <c r="AO110" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="129" spans="32:32">
-      <c r="AF129" t="s">
+    <row r="111" spans="41:41">
+      <c r="AO111" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="32:32">
-      <c r="AF130" t="s">
+    <row r="112" spans="41:41">
+      <c r="AO112" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="131" spans="32:32">
-      <c r="AF131" t="s">
+    <row r="113" spans="41:41">
+      <c r="AO113" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="132" spans="32:32">
-      <c r="AF132" t="s">
+    <row r="114" spans="41:41">
+      <c r="AO114" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="133" spans="32:32">
-      <c r="AF133" t="s">
+    <row r="115" spans="41:41">
+      <c r="AO115" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="134" spans="32:32">
-      <c r="AF134" t="s">
+    <row r="116" spans="41:41">
+      <c r="AO116" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="32:32">
-      <c r="AF135" t="s">
+    <row r="117" spans="41:41">
+      <c r="AO117" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="136" spans="32:32">
-      <c r="AF136" t="s">
+    <row r="118" spans="41:41">
+      <c r="AO118" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="137" spans="32:32">
-      <c r="AF137" t="s">
+    <row r="119" spans="41:41">
+      <c r="AO119" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="138" spans="32:32">
-      <c r="AF138" t="s">
+    <row r="120" spans="41:41">
+      <c r="AO120" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="32:32">
-      <c r="AF139" t="s">
+    <row r="121" spans="41:41">
+      <c r="AO121" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="140" spans="32:32">
-      <c r="AF140" t="s">
+    <row r="122" spans="41:41">
+      <c r="AO122" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="141" spans="32:32">
-      <c r="AF141" t="s">
+    <row r="123" spans="41:41">
+      <c r="AO123" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="142" spans="32:32">
-      <c r="AF142" t="s">
+    <row r="124" spans="41:41">
+      <c r="AO124" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="143" spans="32:32">
-      <c r="AF143" t="s">
+    <row r="125" spans="41:41">
+      <c r="AO125" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="144" spans="32:32">
-      <c r="AF144" t="s">
+    <row r="126" spans="41:41">
+      <c r="AO126" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="145" spans="32:32">
-      <c r="AF145" t="s">
+    <row r="127" spans="41:41">
+      <c r="AO127" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="146" spans="32:32">
-      <c r="AF146" t="s">
+    <row r="128" spans="41:41">
+      <c r="AO128" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="147" spans="32:32">
-      <c r="AF147" t="s">
+    <row r="129" spans="41:41">
+      <c r="AO129" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="148" spans="32:32">
-      <c r="AF148" t="s">
+    <row r="130" spans="41:41">
+      <c r="AO130" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="149" spans="32:32">
-      <c r="AF149" t="s">
+    <row r="131" spans="41:41">
+      <c r="AO131" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="150" spans="32:32">
-      <c r="AF150" t="s">
+    <row r="132" spans="41:41">
+      <c r="AO132" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="151" spans="32:32">
-      <c r="AF151" t="s">
+    <row r="133" spans="41:41">
+      <c r="AO133" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="152" spans="32:32">
-      <c r="AF152" t="s">
+    <row r="134" spans="41:41">
+      <c r="AO134" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="32:32">
-      <c r="AF153" t="s">
+    <row r="135" spans="41:41">
+      <c r="AO135" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="154" spans="32:32">
-      <c r="AF154" t="s">
+    <row r="136" spans="41:41">
+      <c r="AO136" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="155" spans="32:32">
-      <c r="AF155" t="s">
+    <row r="137" spans="41:41">
+      <c r="AO137" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="32:32">
-      <c r="AF156" t="s">
+    <row r="138" spans="41:41">
+      <c r="AO138" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="157" spans="32:32">
-      <c r="AF157" t="s">
+    <row r="139" spans="41:41">
+      <c r="AO139" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="158" spans="32:32">
-      <c r="AF158" t="s">
+    <row r="140" spans="41:41">
+      <c r="AO140" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="159" spans="32:32">
-      <c r="AF159" t="s">
+    <row r="141" spans="41:41">
+      <c r="AO141" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="160" spans="32:32">
-      <c r="AF160" t="s">
+    <row r="142" spans="41:41">
+      <c r="AO142" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="161" spans="32:32">
-      <c r="AF161" t="s">
+    <row r="143" spans="41:41">
+      <c r="AO143" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="32:32">
-      <c r="AF162" t="s">
+    <row r="144" spans="41:41">
+      <c r="AO144" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="32:32">
-      <c r="AF163" t="s">
+    <row r="145" spans="41:41">
+      <c r="AO145" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="32:32">
-      <c r="AF164" t="s">
+    <row r="146" spans="41:41">
+      <c r="AO146" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="32:32">
-      <c r="AF165" t="s">
+    <row r="147" spans="41:41">
+      <c r="AO147" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="166" spans="32:32">
-      <c r="AF166" t="s">
+    <row r="148" spans="41:41">
+      <c r="AO148" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="32:32">
-      <c r="AF167" t="s">
+    <row r="149" spans="41:41">
+      <c r="AO149" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="32:32">
-      <c r="AF168" t="s">
+    <row r="150" spans="41:41">
+      <c r="AO150" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="169" spans="32:32">
-      <c r="AF169" t="s">
+    <row r="151" spans="41:41">
+      <c r="AO151" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="170" spans="32:32">
-      <c r="AF170" t="s">
+    <row r="152" spans="41:41">
+      <c r="AO152" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="171" spans="32:32">
-      <c r="AF171" t="s">
+    <row r="153" spans="41:41">
+      <c r="AO153" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="172" spans="32:32">
-      <c r="AF172" t="s">
+    <row r="154" spans="41:41">
+      <c r="AO154" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="173" spans="32:32">
-      <c r="AF173" t="s">
+    <row r="155" spans="41:41">
+      <c r="AO155" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="174" spans="32:32">
-      <c r="AF174" t="s">
+    <row r="156" spans="41:41">
+      <c r="AO156" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="175" spans="32:32">
-      <c r="AF175" t="s">
+    <row r="157" spans="41:41">
+      <c r="AO157" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="176" spans="32:32">
-      <c r="AF176" t="s">
+    <row r="158" spans="41:41">
+      <c r="AO158" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="177" spans="32:32">
-      <c r="AF177" t="s">
+    <row r="159" spans="41:41">
+      <c r="AO159" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="178" spans="32:32">
-      <c r="AF178" t="s">
+    <row r="160" spans="41:41">
+      <c r="AO160" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="32:32">
-      <c r="AF179" t="s">
+    <row r="161" spans="41:41">
+      <c r="AO161" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="180" spans="32:32">
-      <c r="AF180" t="s">
+    <row r="162" spans="41:41">
+      <c r="AO162" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="181" spans="32:32">
-      <c r="AF181" t="s">
+    <row r="163" spans="41:41">
+      <c r="AO163" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="182" spans="32:32">
-      <c r="AF182" t="s">
+    <row r="164" spans="41:41">
+      <c r="AO164" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="183" spans="32:32">
-      <c r="AF183" t="s">
+    <row r="165" spans="41:41">
+      <c r="AO165" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="184" spans="32:32">
-      <c r="AF184" t="s">
+    <row r="166" spans="41:41">
+      <c r="AO166" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="185" spans="32:32">
-      <c r="AF185" t="s">
+    <row r="167" spans="41:41">
+      <c r="AO167" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="186" spans="32:32">
-      <c r="AF186" t="s">
+    <row r="168" spans="41:41">
+      <c r="AO168" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="187" spans="32:32">
-      <c r="AF187" t="s">
+    <row r="169" spans="41:41">
+      <c r="AO169" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="188" spans="32:32">
-      <c r="AF188" t="s">
+    <row r="170" spans="41:41">
+      <c r="AO170" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="189" spans="32:32">
-      <c r="AF189" t="s">
+    <row r="171" spans="41:41">
+      <c r="AO171" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="32:32">
-      <c r="AF190" t="s">
+    <row r="172" spans="41:41">
+      <c r="AO172" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="191" spans="32:32">
-      <c r="AF191" t="s">
+    <row r="173" spans="41:41">
+      <c r="AO173" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="192" spans="32:32">
-      <c r="AF192" t="s">
+    <row r="174" spans="41:41">
+      <c r="AO174" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="193" spans="32:32">
-      <c r="AF193" t="s">
+    <row r="175" spans="41:41">
+      <c r="AO175" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="194" spans="32:32">
-      <c r="AF194" t="s">
+    <row r="176" spans="41:41">
+      <c r="AO176" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="195" spans="32:32">
-      <c r="AF195" t="s">
+    <row r="177" spans="41:41">
+      <c r="AO177" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="196" spans="32:32">
-      <c r="AF196" t="s">
+    <row r="178" spans="41:41">
+      <c r="AO178" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="197" spans="32:32">
-      <c r="AF197" t="s">
+    <row r="179" spans="41:41">
+      <c r="AO179" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="198" spans="32:32">
-      <c r="AF198" t="s">
+    <row r="180" spans="41:41">
+      <c r="AO180" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="199" spans="32:32">
-      <c r="AF199" t="s">
+    <row r="181" spans="41:41">
+      <c r="AO181" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="200" spans="32:32">
-      <c r="AF200" t="s">
+    <row r="182" spans="41:41">
+      <c r="AO182" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="201" spans="32:32">
-      <c r="AF201" t="s">
+    <row r="183" spans="41:41">
+      <c r="AO183" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="202" spans="32:32">
-      <c r="AF202" t="s">
+    <row r="184" spans="41:41">
+      <c r="AO184" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="203" spans="32:32">
-      <c r="AF203" t="s">
+    <row r="185" spans="41:41">
+      <c r="AO185" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="204" spans="32:32">
-      <c r="AF204" t="s">
+    <row r="186" spans="41:41">
+      <c r="AO186" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="205" spans="32:32">
-      <c r="AF205" t="s">
+    <row r="187" spans="41:41">
+      <c r="AO187" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="206" spans="32:32">
-      <c r="AF206" t="s">
+    <row r="188" spans="41:41">
+      <c r="AO188" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="207" spans="32:32">
-      <c r="AF207" t="s">
+    <row r="189" spans="41:41">
+      <c r="AO189" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="208" spans="32:32">
-      <c r="AF208" t="s">
+    <row r="190" spans="41:41">
+      <c r="AO190" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="209" spans="32:32">
-      <c r="AF209" t="s">
+    <row r="191" spans="41:41">
+      <c r="AO191" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="210" spans="32:32">
-      <c r="AF210" t="s">
+    <row r="192" spans="41:41">
+      <c r="AO192" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="211" spans="32:32">
-      <c r="AF211" t="s">
+    <row r="193" spans="41:41">
+      <c r="AO193" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="32:32">
-      <c r="AF212" t="s">
+    <row r="194" spans="41:41">
+      <c r="AO194" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="213" spans="32:32">
-      <c r="AF213" t="s">
+    <row r="195" spans="41:41">
+      <c r="AO195" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="214" spans="32:32">
-      <c r="AF214" t="s">
+    <row r="196" spans="41:41">
+      <c r="AO196" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="215" spans="32:32">
-      <c r="AF215" t="s">
+    <row r="197" spans="41:41">
+      <c r="AO197" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="216" spans="32:32">
-      <c r="AF216" t="s">
+    <row r="198" spans="41:41">
+      <c r="AO198" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="217" spans="32:32">
-      <c r="AF217" t="s">
+    <row r="199" spans="41:41">
+      <c r="AO199" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="218" spans="32:32">
-      <c r="AF218" t="s">
+    <row r="200" spans="41:41">
+      <c r="AO200" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="219" spans="32:32">
-      <c r="AF219" t="s">
+    <row r="201" spans="41:41">
+      <c r="AO201" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="220" spans="32:32">
-      <c r="AF220" t="s">
+    <row r="202" spans="41:41">
+      <c r="AO202" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="221" spans="32:32">
-      <c r="AF221" t="s">
+    <row r="203" spans="41:41">
+      <c r="AO203" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="222" spans="32:32">
-      <c r="AF222" t="s">
+    <row r="204" spans="41:41">
+      <c r="AO204" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="223" spans="32:32">
-      <c r="AF223" t="s">
+    <row r="205" spans="41:41">
+      <c r="AO205" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="224" spans="32:32">
-      <c r="AF224" t="s">
+    <row r="206" spans="41:41">
+      <c r="AO206" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="225" spans="32:32">
-      <c r="AF225" t="s">
+    <row r="207" spans="41:41">
+      <c r="AO207" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="226" spans="32:32">
-      <c r="AF226" t="s">
+    <row r="208" spans="41:41">
+      <c r="AO208" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="227" spans="32:32">
-      <c r="AF227" t="s">
+    <row r="209" spans="41:41">
+      <c r="AO209" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="228" spans="32:32">
-      <c r="AF228" t="s">
+    <row r="210" spans="41:41">
+      <c r="AO210" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="229" spans="32:32">
-      <c r="AF229" t="s">
+    <row r="211" spans="41:41">
+      <c r="AO211" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="230" spans="32:32">
-      <c r="AF230" t="s">
+    <row r="212" spans="41:41">
+      <c r="AO212" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="231" spans="32:32">
-      <c r="AF231" t="s">
+    <row r="213" spans="41:41">
+      <c r="AO213" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="232" spans="32:32">
-      <c r="AF232" t="s">
+    <row r="214" spans="41:41">
+      <c r="AO214" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="233" spans="32:32">
-      <c r="AF233" t="s">
+    <row r="215" spans="41:41">
+      <c r="AO215" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="234" spans="32:32">
-      <c r="AF234" t="s">
+    <row r="216" spans="41:41">
+      <c r="AO216" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="235" spans="32:32">
-      <c r="AF235" t="s">
+    <row r="217" spans="41:41">
+      <c r="AO217" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="236" spans="32:32">
-      <c r="AF236" t="s">
+    <row r="218" spans="41:41">
+      <c r="AO218" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="237" spans="32:32">
-      <c r="AF237" t="s">
+    <row r="219" spans="41:41">
+      <c r="AO219" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="238" spans="32:32">
-      <c r="AF238" t="s">
+    <row r="220" spans="41:41">
+      <c r="AO220" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="239" spans="32:32">
-      <c r="AF239" t="s">
+    <row r="221" spans="41:41">
+      <c r="AO221" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="240" spans="32:32">
-      <c r="AF240" t="s">
+    <row r="222" spans="41:41">
+      <c r="AO222" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="241" spans="32:32">
-      <c r="AF241" t="s">
+    <row r="223" spans="41:41">
+      <c r="AO223" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="242" spans="32:32">
-      <c r="AF242" t="s">
+    <row r="224" spans="41:41">
+      <c r="AO224" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="243" spans="32:32">
-      <c r="AF243" t="s">
+    <row r="225" spans="41:41">
+      <c r="AO225" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="244" spans="32:32">
-      <c r="AF244" t="s">
+    <row r="226" spans="41:41">
+      <c r="AO226" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="245" spans="32:32">
-      <c r="AF245" t="s">
+    <row r="227" spans="41:41">
+      <c r="AO227" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="246" spans="32:32">
-      <c r="AF246" t="s">
+    <row r="228" spans="41:41">
+      <c r="AO228" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="247" spans="32:32">
-      <c r="AF247" t="s">
+    <row r="229" spans="41:41">
+      <c r="AO229" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="248" spans="32:32">
-      <c r="AF248" t="s">
+    <row r="230" spans="41:41">
+      <c r="AO230" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="249" spans="32:32">
-      <c r="AF249" t="s">
+    <row r="231" spans="41:41">
+      <c r="AO231" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="250" spans="32:32">
-      <c r="AF250" t="s">
+    <row r="232" spans="41:41">
+      <c r="AO232" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="251" spans="32:32">
-      <c r="AF251" t="s">
+    <row r="233" spans="41:41">
+      <c r="AO233" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="252" spans="32:32">
-      <c r="AF252" t="s">
+    <row r="234" spans="41:41">
+      <c r="AO234" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="253" spans="32:32">
-      <c r="AF253" t="s">
+    <row r="235" spans="41:41">
+      <c r="AO235" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="254" spans="32:32">
-      <c r="AF254" t="s">
+    <row r="236" spans="41:41">
+      <c r="AO236" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="255" spans="32:32">
-      <c r="AF255" t="s">
+    <row r="237" spans="41:41">
+      <c r="AO237" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="256" spans="32:32">
-      <c r="AF256" t="s">
+    <row r="238" spans="41:41">
+      <c r="AO238" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="257" spans="32:32">
-      <c r="AF257" t="s">
+    <row r="239" spans="41:41">
+      <c r="AO239" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="258" spans="32:32">
-      <c r="AF258" t="s">
+    <row r="240" spans="41:41">
+      <c r="AO240" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="259" spans="32:32">
-      <c r="AF259" t="s">
+    <row r="241" spans="41:41">
+      <c r="AO241" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="260" spans="32:32">
-      <c r="AF260" t="s">
+    <row r="242" spans="41:41">
+      <c r="AO242" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="261" spans="32:32">
-      <c r="AF261" t="s">
+    <row r="243" spans="41:41">
+      <c r="AO243" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="262" spans="32:32">
-      <c r="AF262" t="s">
+    <row r="244" spans="41:41">
+      <c r="AO244" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="263" spans="32:32">
-      <c r="AF263" t="s">
+    <row r="245" spans="41:41">
+      <c r="AO245" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="264" spans="32:32">
-      <c r="AF264" t="s">
+    <row r="246" spans="41:41">
+      <c r="AO246" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="265" spans="32:32">
-      <c r="AF265" t="s">
+    <row r="247" spans="41:41">
+      <c r="AO247" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="266" spans="32:32">
-      <c r="AF266" t="s">
+    <row r="248" spans="41:41">
+      <c r="AO248" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="267" spans="32:32">
-      <c r="AF267" t="s">
+    <row r="249" spans="41:41">
+      <c r="AO249" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="268" spans="32:32">
-      <c r="AF268" t="s">
+    <row r="250" spans="41:41">
+      <c r="AO250" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="269" spans="32:32">
-      <c r="AF269" t="s">
+    <row r="251" spans="41:41">
+      <c r="AO251" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="270" spans="32:32">
-      <c r="AF270" t="s">
+    <row r="252" spans="41:41">
+      <c r="AO252" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="271" spans="32:32">
-      <c r="AF271" t="s">
+    <row r="253" spans="41:41">
+      <c r="AO253" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="272" spans="32:32">
-      <c r="AF272" t="s">
+    <row r="254" spans="41:41">
+      <c r="AO254" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="273" spans="32:32">
-      <c r="AF273" t="s">
+    <row r="255" spans="41:41">
+      <c r="AO255" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="274" spans="32:32">
-      <c r="AF274" t="s">
+    <row r="256" spans="41:41">
+      <c r="AO256" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="275" spans="32:32">
-      <c r="AF275" t="s">
+    <row r="257" spans="41:41">
+      <c r="AO257" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="276" spans="32:32">
-      <c r="AF276" t="s">
+    <row r="258" spans="41:41">
+      <c r="AO258" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="277" spans="32:32">
-      <c r="AF277" t="s">
+    <row r="259" spans="41:41">
+      <c r="AO259" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="278" spans="32:32">
-      <c r="AF278" t="s">
+    <row r="260" spans="41:41">
+      <c r="AO260" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="279" spans="32:32">
-      <c r="AF279" t="s">
+    <row r="261" spans="41:41">
+      <c r="AO261" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="280" spans="32:32">
-      <c r="AF280" t="s">
+    <row r="262" spans="41:41">
+      <c r="AO262" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="281" spans="32:32">
-      <c r="AF281" t="s">
+    <row r="263" spans="41:41">
+      <c r="AO263" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="282" spans="32:32">
-      <c r="AF282" t="s">
+    <row r="264" spans="41:41">
+      <c r="AO264" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="283" spans="32:32">
-      <c r="AF283" t="s">
+    <row r="265" spans="41:41">
+      <c r="AO265" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="284" spans="32:32">
-      <c r="AF284" t="s">
+    <row r="266" spans="41:41">
+      <c r="AO266" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="285" spans="32:32">
-      <c r="AF285" t="s">
+    <row r="267" spans="41:41">
+      <c r="AO267" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="286" spans="32:32">
-      <c r="AF286" t="s">
+    <row r="268" spans="41:41">
+      <c r="AO268" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="287" spans="32:32">
-      <c r="AF287" t="s">
+    <row r="269" spans="41:41">
+      <c r="AO269" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="288" spans="32:32">
-      <c r="AF288" t="s">
+    <row r="270" spans="41:41">
+      <c r="AO270" t="s">
         <v>621</v>
+      </c>
+    </row>
+    <row r="271" spans="41:41">
+      <c r="AO271" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="272" spans="41:41">
+      <c r="AO272" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="273" spans="41:41">
+      <c r="AO273" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="274" spans="41:41">
+      <c r="AO274" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="275" spans="41:41">
+      <c r="AO275" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="276" spans="41:41">
+      <c r="AO276" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="277" spans="41:41">
+      <c r="AO277" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="278" spans="41:41">
+      <c r="AO278" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="279" spans="41:41">
+      <c r="AO279" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="280" spans="41:41">
+      <c r="AO280" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="281" spans="41:41">
+      <c r="AO281" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="41:41">
+      <c r="AO282" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="283" spans="41:41">
+      <c r="AO283" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="284" spans="41:41">
+      <c r="AO284" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="285" spans="41:41">
+      <c r="AO285" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="286" spans="41:41">
+      <c r="AO286" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="287" spans="41:41">
+      <c r="AO287" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="288" spans="41:41">
+      <c r="AO288" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="289" spans="41:41">
+      <c r="AO289" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="697">
   <si>
     <t>alias</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2663,7 +2666,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2707,7 +2710,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2737,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3446,6 +3449,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3470,27 +3478,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3513,122 +3521,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3655,372 +3663,372 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -4064,104 +4072,104 @@
   <sheetData>
     <row r="1" spans="5:60">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AV1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="BF1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BH1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="5:60">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AV2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="BF2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BH2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="5:60">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AV3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="BH3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="5:60">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="BH4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="5:60">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="BH5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="5:60">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BH6" t="s">
         <v>116</v>
@@ -4169,1420 +4177,1420 @@
     </row>
     <row r="7" spans="5:60">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="5:60">
       <c r="AO8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="5:60">
       <c r="AO9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="5:60">
       <c r="AO10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="5:60">
       <c r="AO11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="5:60">
       <c r="AO12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="5:60">
       <c r="AO13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="5:60">
       <c r="AO14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="5:60">
       <c r="AO15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="5:60">
       <c r="AO16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="41:41">
       <c r="AO17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="41:41">
       <c r="AO18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="41:41">
       <c r="AO19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="41:41">
       <c r="AO20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="41:41">
       <c r="AO21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="41:41">
       <c r="AO22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="41:41">
       <c r="AO23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="41:41">
       <c r="AO24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="41:41">
       <c r="AO25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="41:41">
       <c r="AO26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="41:41">
       <c r="AO27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="41:41">
       <c r="AO28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="41:41">
       <c r="AO29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="41:41">
       <c r="AO30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="41:41">
       <c r="AO31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="41:41">
       <c r="AO32" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="698">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2666,7 +2669,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2710,7 +2713,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2740,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3454,6 +3457,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3478,27 +3486,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3521,122 +3529,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3663,372 +3671,372 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -4072,104 +4080,104 @@
   <sheetData>
     <row r="1" spans="5:60">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AV1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="BF1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BH1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="5:60">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AV2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="BF2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BH2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="5:60">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="BH3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="5:60">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AV4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="BH4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="5:60">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BH5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="5:60">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BH6" t="s">
         <v>116</v>
@@ -4177,1420 +4185,1420 @@
     </row>
     <row r="7" spans="5:60">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="5:60">
       <c r="AO8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="5:60">
       <c r="AO9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="5:60">
       <c r="AO10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="5:60">
       <c r="AO11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="5:60">
       <c r="AO12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="5:60">
       <c r="AO13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="5:60">
       <c r="AO14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="5:60">
       <c r="AO15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="5:60">
       <c r="AO16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="41:41">
       <c r="AO17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="41:41">
       <c r="AO18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="41:41">
       <c r="AO19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="41:41">
       <c r="AO20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="41:41">
       <c r="AO21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="41:41">
       <c r="AO22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="41:41">
       <c r="AO23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="41:41">
       <c r="AO24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="41:41">
       <c r="AO25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="41:41">
       <c r="AO26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="41:41">
       <c r="AO27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="41:41">
       <c r="AO28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="41:41">
       <c r="AO29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="41:41">
       <c r="AO30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="41:41">
       <c r="AO31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="41:41">
       <c r="AO32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="699">
   <si>
     <t>alias</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2669,7 +2672,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2713,7 +2716,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3462,6 +3465,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3486,27 +3494,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3529,122 +3537,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3671,372 +3679,372 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -4080,104 +4088,104 @@
   <sheetData>
     <row r="1" spans="5:60">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AV1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="BF1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BH1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="5:60">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="BF2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BH2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="5:60">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AV3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="BH3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="5:60">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AV4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="BH4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="5:60">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BH5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="5:60">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BH6" t="s">
         <v>116</v>
@@ -4185,1420 +4193,1420 @@
     </row>
     <row r="7" spans="5:60">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="5:60">
       <c r="AO8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="5:60">
       <c r="AO9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="5:60">
       <c r="AO10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="5:60">
       <c r="AO11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="5:60">
       <c r="AO12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="5:60">
       <c r="AO13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="5:60">
       <c r="AO14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="5:60">
       <c r="AO15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="5:60">
       <c r="AO16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="41:41">
       <c r="AO17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="41:41">
       <c r="AO18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="41:41">
       <c r="AO19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="41:41">
       <c r="AO20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="41:41">
       <c r="AO21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="41:41">
       <c r="AO22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="41:41">
       <c r="AO23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="41:41">
       <c r="AO24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="41:41">
       <c r="AO25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="41:41">
       <c r="AO26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="41:41">
       <c r="AO27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="41:41">
       <c r="AO28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="41:41">
       <c r="AO29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="41:41">
       <c r="AO30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="41:41">
       <c r="AO31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="41:41">
       <c r="AO32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="700">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2672,7 +2675,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2716,7 +2719,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2746,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3470,6 +3473,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3494,27 +3502,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3537,122 +3545,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3679,372 +3687,372 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -4088,104 +4096,104 @@
   <sheetData>
     <row r="1" spans="5:60">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="BF1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BH1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="5:60">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AV2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="BF2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BH2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="5:60">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AV3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="BH3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="5:60">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AV4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="BH4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="5:60">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BH5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="5:60">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BH6" t="s">
         <v>116</v>
@@ -4193,1420 +4201,1420 @@
     </row>
     <row r="7" spans="5:60">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="5:60">
       <c r="AO8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="5:60">
       <c r="AO9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="5:60">
       <c r="AO10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="5:60">
       <c r="AO11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="5:60">
       <c r="AO12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="5:60">
       <c r="AO13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="5:60">
       <c r="AO14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="5:60">
       <c r="AO15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="5:60">
       <c r="AO16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="41:41">
       <c r="AO17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="41:41">
       <c r="AO18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="41:41">
       <c r="AO19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="41:41">
       <c r="AO20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="41:41">
       <c r="AO21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="41:41">
       <c r="AO22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="41:41">
       <c r="AO23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="41:41">
       <c r="AO24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="41:41">
       <c r="AO25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="41:41">
       <c r="AO26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="41:41">
       <c r="AO27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="41:41">
       <c r="AO28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="41:41">
       <c r="AO29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="41:41">
       <c r="AO30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="41:41">
       <c r="AO31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="41:41">
       <c r="AO32" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -30,14 +30,14 @@
     <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AV$1:$AV$4</definedName>
     <definedName name="sortingtechnology">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="WGAamplificationapproach">'cv_sample'!$BF$1:$BF$2</definedName>
+    <definedName name="wgaamplificationapproach">'cv_sample'!$BF$1:$BF$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="705">
   <si>
     <t>alias</t>
   </si>
@@ -870,73 +870,73 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic source</t>
+    <t>metagenomic_source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample derived from</t>
+    <t>sample_derived_from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number of standard tRNAs extracted</t>
+    <t>number_of_standard_trnas_extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
   </si>
   <si>
-    <t>feature prediction</t>
+    <t>feature_prediction</t>
   </si>
   <si>
     <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>similarity search method</t>
+    <t>similarity_search_method</t>
   </si>
   <si>
     <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
@@ -948,43 +948,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>16s recovered</t>
+    <t>_16s_recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>16S recovery software</t>
+    <t>_16s_recovery_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>tRNA extraction software</t>
+    <t>trna_extraction_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness score</t>
+    <t>completeness_score</t>
   </si>
   <si>
     <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness software</t>
+    <t>completeness_software</t>
   </si>
   <si>
     <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness approach</t>
+    <t>completeness_approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>contamination score</t>
+    <t>contamination_score</t>
   </si>
   <si>
     <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
@@ -996,19 +996,19 @@
     <t>reads</t>
   </si>
   <si>
-    <t>contamination screening input</t>
+    <t>contamination_screening_input</t>
   </si>
   <si>
     <t>(Optional) The type of sequence data used as input</t>
   </si>
   <si>
-    <t>contamination screening parameters</t>
+    <t>contamination_screening_parameters</t>
   </si>
   <si>
     <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
   </si>
   <si>
-    <t>decontamination software</t>
+    <t>decontamination_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used in contamination screening</t>
@@ -1023,13 +1023,13 @@
     <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
   </si>
   <si>
-    <t>assembly quality</t>
+    <t>assembly_quality</t>
   </si>
   <si>
     <t>(Recommended) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
   </si>
   <si>
-    <t>taxonomic identity marker</t>
+    <t>taxonomic_identity_marker</t>
   </si>
   <si>
     <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1041,7 +1041,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1053,37 +1053,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1095,13 +1095,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>size_fraction_selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1320,9 +1320,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1341,6 +1338,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1542,6 +1542,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1551,9 +1554,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1593,7 +1593,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1662,6 +1662,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1737,6 +1740,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1758,6 +1764,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1803,6 +1812,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1815,6 +1827,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1824,9 +1839,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1851,6 +1863,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1911,12 +1926,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1974,43 +1989,43 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>reference database(s)</t>
+    <t>reference_databases</t>
   </si>
   <si>
     <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
@@ -2028,61 +2043,61 @@
     <t>physical</t>
   </si>
   <si>
-    <t>single cell or viral particle lysis approach</t>
+    <t>single_cell_or_viral_particle_lysis_approach</t>
   </si>
   <si>
     <t>(Mandatory) Method used to free dna from interior of the cell(s) or particle(s)</t>
   </si>
   <si>
-    <t>single cell or viral particle lysis kit protocol</t>
+    <t>single_cell_or_viral_particle_lysis_kit_protocol</t>
   </si>
   <si>
     <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic acid extraction</t>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly software</t>
+    <t>assembly_software</t>
   </si>
   <si>
     <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2094,13 +2109,13 @@
     <t>pcr based</t>
   </si>
   <si>
-    <t>WGA amplification approach</t>
+    <t>wga_amplification_approach</t>
   </si>
   <si>
     <t>(Mandatory) Method used to amplify genomic dna in preparation for sequencing</t>
   </si>
   <si>
-    <t>WGA amplification kit</t>
+    <t>wga_amplification_kit</t>
   </si>
   <si>
     <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
@@ -2121,7 +2136,7 @@
     <t>optical manipulation</t>
   </si>
   <si>
-    <t>sorting technology</t>
+    <t>sorting_technology</t>
   </si>
   <si>
     <t>(Mandatory) Method used to sort/isolate cells or particles of interest</t>
@@ -2136,7 +2151,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3801,70 +3816,70 @@
         <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
@@ -3989,70 +4004,70 @@
         <v>355</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4091,7 @@
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
-      <formula1>WGAamplificationapproach</formula1>
+      <formula1>wgaamplificationapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
       <formula1>sortingtechnology</formula1>
@@ -4088,7 +4103,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BH289"/>
+  <dimension ref="E1:BH294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4111,13 +4126,13 @@
         <v>356</v>
       </c>
       <c r="AV1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="BF1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BH1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="5:60">
@@ -4137,13 +4152,13 @@
         <v>357</v>
       </c>
       <c r="AV2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="BF2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BH2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="5:60">
@@ -4157,10 +4172,10 @@
         <v>358</v>
       </c>
       <c r="AV3" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="BH3" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="5:60">
@@ -4171,10 +4186,10 @@
         <v>359</v>
       </c>
       <c r="AV4" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="BH4" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="5:60">
@@ -4185,7 +4200,7 @@
         <v>360</v>
       </c>
       <c r="BH5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="5:60">
@@ -5615,6 +5630,31 @@
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="290" spans="41:41">
+      <c r="AO290" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="291" spans="41:41">
+      <c r="AO291" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="292" spans="41:41">
+      <c r="AO292" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="293" spans="41:41">
+      <c r="AO293" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="294" spans="41:41">
+      <c r="AO294" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -30,14 +30,14 @@
     <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AV$1:$AV$4</definedName>
     <definedName name="sortingtechnology">'cv_sample'!$BH$1:$BH$6</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="wgaamplificationapproach">'cv_sample'!$BF$1:$BF$2</definedName>
+    <definedName name="WGAamplificationapproach">'cv_sample'!$BF$1:$BF$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="700">
   <si>
     <t>alias</t>
   </si>
@@ -870,73 +870,73 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic_source</t>
+    <t>metagenomic source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample_derived_from</t>
+    <t>sample derived from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number_of_standard_trnas_extracted</t>
+    <t>number of standard tRNAs extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
   </si>
   <si>
-    <t>feature_prediction</t>
+    <t>feature prediction</t>
   </si>
   <si>
     <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>similarity_search_method</t>
+    <t>similarity search method</t>
   </si>
   <si>
     <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
@@ -948,43 +948,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>_16s_recovered</t>
+    <t>16s recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>_16s_recovery_software</t>
+    <t>16S recovery software</t>
   </si>
   <si>
     <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>trna_extraction_software</t>
+    <t>tRNA extraction software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness_score</t>
+    <t>completeness score</t>
   </si>
   <si>
     <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness_software</t>
+    <t>completeness software</t>
   </si>
   <si>
     <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness_approach</t>
+    <t>completeness approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>contamination_score</t>
+    <t>contamination score</t>
   </si>
   <si>
     <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
@@ -996,19 +996,19 @@
     <t>reads</t>
   </si>
   <si>
-    <t>contamination_screening_input</t>
+    <t>contamination screening input</t>
   </si>
   <si>
     <t>(Optional) The type of sequence data used as input</t>
   </si>
   <si>
-    <t>contamination_screening_parameters</t>
+    <t>contamination screening parameters</t>
   </si>
   <si>
     <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
   </si>
   <si>
-    <t>decontamination_software</t>
+    <t>decontamination software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used in contamination screening</t>
@@ -1023,13 +1023,13 @@
     <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
   </si>
   <si>
-    <t>assembly_quality</t>
+    <t>assembly quality</t>
   </si>
   <si>
     <t>(Recommended) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
   </si>
   <si>
-    <t>taxonomic_identity_marker</t>
+    <t>taxonomic identity marker</t>
   </si>
   <si>
     <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1041,7 +1041,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1053,37 +1053,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1095,13 +1095,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>size_fraction_selected</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1320,6 +1320,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1338,9 +1341,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1542,9 +1542,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1554,6 +1551,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1593,7 +1593,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1662,9 +1662,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1740,9 +1737,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1764,9 +1758,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1812,9 +1803,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1827,9 +1815,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1839,6 +1824,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1863,9 +1851,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1926,12 +1911,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1989,43 +1974,43 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>reference_databases</t>
+    <t>reference database(s)</t>
   </si>
   <si>
     <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
@@ -2043,61 +2028,61 @@
     <t>physical</t>
   </si>
   <si>
-    <t>single_cell_or_viral_particle_lysis_approach</t>
+    <t>single cell or viral particle lysis approach</t>
   </si>
   <si>
     <t>(Mandatory) Method used to free dna from interior of the cell(s) or particle(s)</t>
   </si>
   <si>
-    <t>single_cell_or_viral_particle_lysis_kit_protocol</t>
+    <t>single cell or viral particle lysis kit protocol</t>
   </si>
   <si>
     <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic_acid_extraction</t>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly_software</t>
+    <t>assembly software</t>
   </si>
   <si>
     <t>(Recommended) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2109,13 +2094,13 @@
     <t>pcr based</t>
   </si>
   <si>
-    <t>wga_amplification_approach</t>
+    <t>WGA amplification approach</t>
   </si>
   <si>
     <t>(Mandatory) Method used to amplify genomic dna in preparation for sequencing</t>
   </si>
   <si>
-    <t>wga_amplification_kit</t>
+    <t>WGA amplification kit</t>
   </si>
   <si>
     <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
@@ -2136,7 +2121,7 @@
     <t>optical manipulation</t>
   </si>
   <si>
-    <t>sorting_technology</t>
+    <t>sorting technology</t>
   </si>
   <si>
     <t>(Mandatory) Method used to sort/isolate cells or particles of interest</t>
@@ -2151,7 +2136,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3816,70 +3801,70 @@
         <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="150" customHeight="1">
@@ -4004,70 +3989,70 @@
         <v>355</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4076,7 @@
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
-      <formula1>wgaamplificationapproach</formula1>
+      <formula1>WGAamplificationapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
       <formula1>sortingtechnology</formula1>
@@ -4103,7 +4088,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BH294"/>
+  <dimension ref="E1:BH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4126,13 +4111,13 @@
         <v>356</v>
       </c>
       <c r="AV1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="BF1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="BH1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="5:60">
@@ -4152,13 +4137,13 @@
         <v>357</v>
       </c>
       <c r="AV2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="BF2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="BH2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="5:60">
@@ -4172,10 +4157,10 @@
         <v>358</v>
       </c>
       <c r="AV3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="BH3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="5:60">
@@ -4186,10 +4171,10 @@
         <v>359</v>
       </c>
       <c r="AV4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="BH4" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="5:60">
@@ -4200,7 +4185,7 @@
         <v>360</v>
       </c>
       <c r="BH5" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="5:60">
@@ -5630,31 +5615,6 @@
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="290" spans="41:41">
-      <c r="AO290" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="291" spans="41:41">
-      <c r="AO291" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="292" spans="41:41">
-      <c r="AO292" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="293" spans="41:41">
-      <c r="AO293" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="294" spans="41:41">
-      <c r="AO294" t="s">
-        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -17,27 +17,27 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
-    <definedName name="contaminationscreeninginput">'cv_sample'!$X$1:$X$2</definedName>
+    <definedName name="assemblyquality">'cv_sample'!$AC$1:$AC$3</definedName>
+    <definedName name="contaminationscreeninginput">'cv_sample'!$Z$1:$Z$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$E$1:$E$7</definedName>
-    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AV$1:$AV$4</definedName>
-    <definedName name="sortingtechnology">'cv_sample'!$BH$1:$BH$6</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$G$1:$G$7</definedName>
+    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AX$1:$AX$4</definedName>
+    <definedName name="sortingtechnology">'cv_sample'!$BJ$1:$BJ$6</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="WGAamplificationapproach">'cv_sample'!$BF$1:$BF$2</definedName>
+    <definedName name="WGAamplificationapproach">'cv_sample'!$BH$1:$BH$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="704">
   <si>
     <t>alias</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3670,7 +3682,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3679,7 +3691,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3693,10 +3705,10 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>281</v>
@@ -3729,10 +3741,10 @@
         <v>299</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>307</v>
@@ -3750,19 +3762,19 @@
         <v>315</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>323</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>332</v>
@@ -3801,10 +3813,10 @@
         <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>645</v>
+        <v>356</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>647</v>
+        <v>358</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>649</v>
@@ -3822,10 +3834,10 @@
         <v>657</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>667</v>
@@ -3852,22 +3864,28 @@
         <v>681</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="BH1" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" ht="150" customHeight="1">
+      <c r="BK1" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3881,10 +3899,10 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>282</v>
@@ -3917,10 +3935,10 @@
         <v>300</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>308</v>
@@ -3938,19 +3956,19 @@
         <v>316</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>324</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>333</v>
@@ -3989,10 +4007,10 @@
         <v>355</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>646</v>
+        <v>357</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>648</v>
+        <v>359</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>650</v>
@@ -4010,10 +4028,10 @@
         <v>658</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>668</v>
@@ -4040,45 +4058,51 @@
         <v>682</v>
       </c>
       <c r="BF2" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="BG2" s="2" t="s">
-        <v>688</v>
-      </c>
       <c r="BH2" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>699</v>
       </c>
+      <c r="BK2" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>703</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>16srecovered</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>contaminationscreeninginput</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>assemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
       <formula1>WGAamplificationapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ3:BJ101">
       <formula1>sortingtechnology</formula1>
     </dataValidation>
   </dataValidations>
@@ -4088,1533 +4112,1533 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BH289"/>
+  <dimension ref="G1:BJ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:60">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>301</v>
-      </c>
-      <c r="X1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>659</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>683</v>
+    <row r="1" spans="7:62">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>663</v>
       </c>
       <c r="BH1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="5:60">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>302</v>
-      </c>
-      <c r="X2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>357</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>660</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>684</v>
+        <v>687</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2" spans="7:62">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>664</v>
       </c>
       <c r="BH2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="5:60">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>661</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="5:60">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>359</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>662</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="5:60">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>360</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="6" spans="5:60">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>361</v>
-      </c>
-      <c r="BH6" t="s">
+        <v>688</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="7:62">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>665</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="7:62">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>666</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="7:62">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>364</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="7:62">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>365</v>
+      </c>
+      <c r="BJ6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="5:60">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="5:60">
-      <c r="AO8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="5:60">
-      <c r="AO9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="5:60">
-      <c r="AO10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="5:60">
-      <c r="AO11" t="s">
+    <row r="7" spans="7:62">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="5:60">
-      <c r="AO12" t="s">
+    <row r="8" spans="7:62">
+      <c r="AQ8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="5:60">
-      <c r="AO13" t="s">
+    <row r="9" spans="7:62">
+      <c r="AQ9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="5:60">
-      <c r="AO14" t="s">
+    <row r="10" spans="7:62">
+      <c r="AQ10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="5:60">
-      <c r="AO15" t="s">
+    <row r="11" spans="7:62">
+      <c r="AQ11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="5:60">
-      <c r="AO16" t="s">
+    <row r="12" spans="7:62">
+      <c r="AQ12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="41:41">
-      <c r="AO17" t="s">
+    <row r="13" spans="7:62">
+      <c r="AQ13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="41:41">
-      <c r="AO18" t="s">
+    <row r="14" spans="7:62">
+      <c r="AQ14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="41:41">
-      <c r="AO19" t="s">
+    <row r="15" spans="7:62">
+      <c r="AQ15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="41:41">
-      <c r="AO20" t="s">
+    <row r="16" spans="7:62">
+      <c r="AQ16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="41:41">
-      <c r="AO21" t="s">
+    <row r="17" spans="43:43">
+      <c r="AQ17" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="41:41">
-      <c r="AO22" t="s">
+    <row r="18" spans="43:43">
+      <c r="AQ18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="41:41">
-      <c r="AO23" t="s">
+    <row r="19" spans="43:43">
+      <c r="AQ19" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="41:41">
-      <c r="AO24" t="s">
+    <row r="20" spans="43:43">
+      <c r="AQ20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="41:41">
-      <c r="AO25" t="s">
+    <row r="21" spans="43:43">
+      <c r="AQ21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="41:41">
-      <c r="AO26" t="s">
+    <row r="22" spans="43:43">
+      <c r="AQ22" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="41:41">
-      <c r="AO27" t="s">
+    <row r="23" spans="43:43">
+      <c r="AQ23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="41:41">
-      <c r="AO28" t="s">
+    <row r="24" spans="43:43">
+      <c r="AQ24" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="41:41">
-      <c r="AO29" t="s">
+    <row r="25" spans="43:43">
+      <c r="AQ25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="41:41">
-      <c r="AO30" t="s">
+    <row r="26" spans="43:43">
+      <c r="AQ26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="41:41">
-      <c r="AO31" t="s">
+    <row r="27" spans="43:43">
+      <c r="AQ27" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="41:41">
-      <c r="AO32" t="s">
+    <row r="28" spans="43:43">
+      <c r="AQ28" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="41:41">
-      <c r="AO33" t="s">
+    <row r="29" spans="43:43">
+      <c r="AQ29" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="41:41">
-      <c r="AO34" t="s">
+    <row r="30" spans="43:43">
+      <c r="AQ30" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="41:41">
-      <c r="AO35" t="s">
+    <row r="31" spans="43:43">
+      <c r="AQ31" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="41:41">
-      <c r="AO36" t="s">
+    <row r="32" spans="43:43">
+      <c r="AQ32" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="41:41">
-      <c r="AO37" t="s">
+    <row r="33" spans="43:43">
+      <c r="AQ33" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="41:41">
-      <c r="AO38" t="s">
+    <row r="34" spans="43:43">
+      <c r="AQ34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="41:41">
-      <c r="AO39" t="s">
+    <row r="35" spans="43:43">
+      <c r="AQ35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="41:41">
-      <c r="AO40" t="s">
+    <row r="36" spans="43:43">
+      <c r="AQ36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="41:41">
-      <c r="AO41" t="s">
+    <row r="37" spans="43:43">
+      <c r="AQ37" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="41:41">
-      <c r="AO42" t="s">
+    <row r="38" spans="43:43">
+      <c r="AQ38" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="41:41">
-      <c r="AO43" t="s">
+    <row r="39" spans="43:43">
+      <c r="AQ39" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="41:41">
-      <c r="AO44" t="s">
+    <row r="40" spans="43:43">
+      <c r="AQ40" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="41:41">
-      <c r="AO45" t="s">
+    <row r="41" spans="43:43">
+      <c r="AQ41" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="41:41">
-      <c r="AO46" t="s">
+    <row r="42" spans="43:43">
+      <c r="AQ42" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="41:41">
-      <c r="AO47" t="s">
+    <row r="43" spans="43:43">
+      <c r="AQ43" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="48" spans="41:41">
-      <c r="AO48" t="s">
+    <row r="44" spans="43:43">
+      <c r="AQ44" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="41:41">
-      <c r="AO49" t="s">
+    <row r="45" spans="43:43">
+      <c r="AQ45" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="41:41">
-      <c r="AO50" t="s">
+    <row r="46" spans="43:43">
+      <c r="AQ46" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="41:41">
-      <c r="AO51" t="s">
+    <row r="47" spans="43:43">
+      <c r="AQ47" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="41:41">
-      <c r="AO52" t="s">
+    <row r="48" spans="43:43">
+      <c r="AQ48" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="41:41">
-      <c r="AO53" t="s">
+    <row r="49" spans="43:43">
+      <c r="AQ49" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="41:41">
-      <c r="AO54" t="s">
+    <row r="50" spans="43:43">
+      <c r="AQ50" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="55" spans="41:41">
-      <c r="AO55" t="s">
+    <row r="51" spans="43:43">
+      <c r="AQ51" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="41:41">
-      <c r="AO56" t="s">
+    <row r="52" spans="43:43">
+      <c r="AQ52" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="41:41">
-      <c r="AO57" t="s">
+    <row r="53" spans="43:43">
+      <c r="AQ53" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="41:41">
-      <c r="AO58" t="s">
+    <row r="54" spans="43:43">
+      <c r="AQ54" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="41:41">
-      <c r="AO59" t="s">
+    <row r="55" spans="43:43">
+      <c r="AQ55" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="41:41">
-      <c r="AO60" t="s">
+    <row r="56" spans="43:43">
+      <c r="AQ56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="41:41">
-      <c r="AO61" t="s">
+    <row r="57" spans="43:43">
+      <c r="AQ57" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="41:41">
-      <c r="AO62" t="s">
+    <row r="58" spans="43:43">
+      <c r="AQ58" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="41:41">
-      <c r="AO63" t="s">
+    <row r="59" spans="43:43">
+      <c r="AQ59" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="41:41">
-      <c r="AO64" t="s">
+    <row r="60" spans="43:43">
+      <c r="AQ60" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="41:41">
-      <c r="AO65" t="s">
+    <row r="61" spans="43:43">
+      <c r="AQ61" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="41:41">
-      <c r="AO66" t="s">
+    <row r="62" spans="43:43">
+      <c r="AQ62" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="41:41">
-      <c r="AO67" t="s">
+    <row r="63" spans="43:43">
+      <c r="AQ63" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="41:41">
-      <c r="AO68" t="s">
+    <row r="64" spans="43:43">
+      <c r="AQ64" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="41:41">
-      <c r="AO69" t="s">
+    <row r="65" spans="43:43">
+      <c r="AQ65" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="70" spans="41:41">
-      <c r="AO70" t="s">
+    <row r="66" spans="43:43">
+      <c r="AQ66" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="41:41">
-      <c r="AO71" t="s">
+    <row r="67" spans="43:43">
+      <c r="AQ67" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="41:41">
-      <c r="AO72" t="s">
+    <row r="68" spans="43:43">
+      <c r="AQ68" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="73" spans="41:41">
-      <c r="AO73" t="s">
+    <row r="69" spans="43:43">
+      <c r="AQ69" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="41:41">
-      <c r="AO74" t="s">
+    <row r="70" spans="43:43">
+      <c r="AQ70" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="75" spans="41:41">
-      <c r="AO75" t="s">
+    <row r="71" spans="43:43">
+      <c r="AQ71" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="41:41">
-      <c r="AO76" t="s">
+    <row r="72" spans="43:43">
+      <c r="AQ72" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="77" spans="41:41">
-      <c r="AO77" t="s">
+    <row r="73" spans="43:43">
+      <c r="AQ73" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="41:41">
-      <c r="AO78" t="s">
+    <row r="74" spans="43:43">
+      <c r="AQ74" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="79" spans="41:41">
-      <c r="AO79" t="s">
+    <row r="75" spans="43:43">
+      <c r="AQ75" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="80" spans="41:41">
-      <c r="AO80" t="s">
+    <row r="76" spans="43:43">
+      <c r="AQ76" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="41:41">
-      <c r="AO81" t="s">
+    <row r="77" spans="43:43">
+      <c r="AQ77" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="82" spans="41:41">
-      <c r="AO82" t="s">
+    <row r="78" spans="43:43">
+      <c r="AQ78" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="41:41">
-      <c r="AO83" t="s">
+    <row r="79" spans="43:43">
+      <c r="AQ79" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="41:41">
-      <c r="AO84" t="s">
+    <row r="80" spans="43:43">
+      <c r="AQ80" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="85" spans="41:41">
-      <c r="AO85" t="s">
+    <row r="81" spans="43:43">
+      <c r="AQ81" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="41:41">
-      <c r="AO86" t="s">
+    <row r="82" spans="43:43">
+      <c r="AQ82" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="41:41">
-      <c r="AO87" t="s">
+    <row r="83" spans="43:43">
+      <c r="AQ83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="41:41">
-      <c r="AO88" t="s">
+    <row r="84" spans="43:43">
+      <c r="AQ84" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="41:41">
-      <c r="AO89" t="s">
+    <row r="85" spans="43:43">
+      <c r="AQ85" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="41:41">
-      <c r="AO90" t="s">
+    <row r="86" spans="43:43">
+      <c r="AQ86" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="41:41">
-      <c r="AO91" t="s">
+    <row r="87" spans="43:43">
+      <c r="AQ87" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="41:41">
-      <c r="AO92" t="s">
+    <row r="88" spans="43:43">
+      <c r="AQ88" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="41:41">
-      <c r="AO93" t="s">
+    <row r="89" spans="43:43">
+      <c r="AQ89" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="41:41">
-      <c r="AO94" t="s">
+    <row r="90" spans="43:43">
+      <c r="AQ90" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="41:41">
-      <c r="AO95" t="s">
+    <row r="91" spans="43:43">
+      <c r="AQ91" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="41:41">
-      <c r="AO96" t="s">
+    <row r="92" spans="43:43">
+      <c r="AQ92" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="41:41">
-      <c r="AO97" t="s">
+    <row r="93" spans="43:43">
+      <c r="AQ93" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="41:41">
-      <c r="AO98" t="s">
+    <row r="94" spans="43:43">
+      <c r="AQ94" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="99" spans="41:41">
-      <c r="AO99" t="s">
+    <row r="95" spans="43:43">
+      <c r="AQ95" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="41:41">
-      <c r="AO100" t="s">
+    <row r="96" spans="43:43">
+      <c r="AQ96" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="41:41">
-      <c r="AO101" t="s">
+    <row r="97" spans="43:43">
+      <c r="AQ97" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="102" spans="41:41">
-      <c r="AO102" t="s">
+    <row r="98" spans="43:43">
+      <c r="AQ98" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="103" spans="41:41">
-      <c r="AO103" t="s">
+    <row r="99" spans="43:43">
+      <c r="AQ99" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="41:41">
-      <c r="AO104" t="s">
+    <row r="100" spans="43:43">
+      <c r="AQ100" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="41:41">
-      <c r="AO105" t="s">
+    <row r="101" spans="43:43">
+      <c r="AQ101" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="41:41">
-      <c r="AO106" t="s">
+    <row r="102" spans="43:43">
+      <c r="AQ102" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="107" spans="41:41">
-      <c r="AO107" t="s">
+    <row r="103" spans="43:43">
+      <c r="AQ103" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="41:41">
-      <c r="AO108" t="s">
+    <row r="104" spans="43:43">
+      <c r="AQ104" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="41:41">
-      <c r="AO109" t="s">
+    <row r="105" spans="43:43">
+      <c r="AQ105" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="110" spans="41:41">
-      <c r="AO110" t="s">
+    <row r="106" spans="43:43">
+      <c r="AQ106" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="41:41">
-      <c r="AO111" t="s">
+    <row r="107" spans="43:43">
+      <c r="AQ107" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="41:41">
-      <c r="AO112" t="s">
+    <row r="108" spans="43:43">
+      <c r="AQ108" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="113" spans="41:41">
-      <c r="AO113" t="s">
+    <row r="109" spans="43:43">
+      <c r="AQ109" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="114" spans="41:41">
-      <c r="AO114" t="s">
+    <row r="110" spans="43:43">
+      <c r="AQ110" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="115" spans="41:41">
-      <c r="AO115" t="s">
+    <row r="111" spans="43:43">
+      <c r="AQ111" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="116" spans="41:41">
-      <c r="AO116" t="s">
+    <row r="112" spans="43:43">
+      <c r="AQ112" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="117" spans="41:41">
-      <c r="AO117" t="s">
+    <row r="113" spans="43:43">
+      <c r="AQ113" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="118" spans="41:41">
-      <c r="AO118" t="s">
+    <row r="114" spans="43:43">
+      <c r="AQ114" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="119" spans="41:41">
-      <c r="AO119" t="s">
+    <row r="115" spans="43:43">
+      <c r="AQ115" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="41:41">
-      <c r="AO120" t="s">
+    <row r="116" spans="43:43">
+      <c r="AQ116" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="121" spans="41:41">
-      <c r="AO121" t="s">
+    <row r="117" spans="43:43">
+      <c r="AQ117" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="41:41">
-      <c r="AO122" t="s">
+    <row r="118" spans="43:43">
+      <c r="AQ118" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="123" spans="41:41">
-      <c r="AO123" t="s">
+    <row r="119" spans="43:43">
+      <c r="AQ119" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="124" spans="41:41">
-      <c r="AO124" t="s">
+    <row r="120" spans="43:43">
+      <c r="AQ120" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="125" spans="41:41">
-      <c r="AO125" t="s">
+    <row r="121" spans="43:43">
+      <c r="AQ121" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="41:41">
-      <c r="AO126" t="s">
+    <row r="122" spans="43:43">
+      <c r="AQ122" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="127" spans="41:41">
-      <c r="AO127" t="s">
+    <row r="123" spans="43:43">
+      <c r="AQ123" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="128" spans="41:41">
-      <c r="AO128" t="s">
+    <row r="124" spans="43:43">
+      <c r="AQ124" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="41:41">
-      <c r="AO129" t="s">
+    <row r="125" spans="43:43">
+      <c r="AQ125" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="130" spans="41:41">
-      <c r="AO130" t="s">
+    <row r="126" spans="43:43">
+      <c r="AQ126" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="131" spans="41:41">
-      <c r="AO131" t="s">
+    <row r="127" spans="43:43">
+      <c r="AQ127" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="132" spans="41:41">
-      <c r="AO132" t="s">
+    <row r="128" spans="43:43">
+      <c r="AQ128" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="133" spans="41:41">
-      <c r="AO133" t="s">
+    <row r="129" spans="43:43">
+      <c r="AQ129" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="134" spans="41:41">
-      <c r="AO134" t="s">
+    <row r="130" spans="43:43">
+      <c r="AQ130" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="135" spans="41:41">
-      <c r="AO135" t="s">
+    <row r="131" spans="43:43">
+      <c r="AQ131" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="136" spans="41:41">
-      <c r="AO136" t="s">
+    <row r="132" spans="43:43">
+      <c r="AQ132" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="137" spans="41:41">
-      <c r="AO137" t="s">
+    <row r="133" spans="43:43">
+      <c r="AQ133" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="138" spans="41:41">
-      <c r="AO138" t="s">
+    <row r="134" spans="43:43">
+      <c r="AQ134" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="139" spans="41:41">
-      <c r="AO139" t="s">
+    <row r="135" spans="43:43">
+      <c r="AQ135" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="140" spans="41:41">
-      <c r="AO140" t="s">
+    <row r="136" spans="43:43">
+      <c r="AQ136" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="141" spans="41:41">
-      <c r="AO141" t="s">
+    <row r="137" spans="43:43">
+      <c r="AQ137" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="142" spans="41:41">
-      <c r="AO142" t="s">
+    <row r="138" spans="43:43">
+      <c r="AQ138" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="143" spans="41:41">
-      <c r="AO143" t="s">
+    <row r="139" spans="43:43">
+      <c r="AQ139" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="144" spans="41:41">
-      <c r="AO144" t="s">
+    <row r="140" spans="43:43">
+      <c r="AQ140" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="145" spans="41:41">
-      <c r="AO145" t="s">
+    <row r="141" spans="43:43">
+      <c r="AQ141" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="41:41">
-      <c r="AO146" t="s">
+    <row r="142" spans="43:43">
+      <c r="AQ142" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="147" spans="41:41">
-      <c r="AO147" t="s">
+    <row r="143" spans="43:43">
+      <c r="AQ143" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="41:41">
-      <c r="AO148" t="s">
+    <row r="144" spans="43:43">
+      <c r="AQ144" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="149" spans="41:41">
-      <c r="AO149" t="s">
+    <row r="145" spans="43:43">
+      <c r="AQ145" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="150" spans="41:41">
-      <c r="AO150" t="s">
+    <row r="146" spans="43:43">
+      <c r="AQ146" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="151" spans="41:41">
-      <c r="AO151" t="s">
+    <row r="147" spans="43:43">
+      <c r="AQ147" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="41:41">
-      <c r="AO152" t="s">
+    <row r="148" spans="43:43">
+      <c r="AQ148" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="153" spans="41:41">
-      <c r="AO153" t="s">
+    <row r="149" spans="43:43">
+      <c r="AQ149" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="154" spans="41:41">
-      <c r="AO154" t="s">
+    <row r="150" spans="43:43">
+      <c r="AQ150" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="155" spans="41:41">
-      <c r="AO155" t="s">
+    <row r="151" spans="43:43">
+      <c r="AQ151" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="156" spans="41:41">
-      <c r="AO156" t="s">
+    <row r="152" spans="43:43">
+      <c r="AQ152" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="157" spans="41:41">
-      <c r="AO157" t="s">
+    <row r="153" spans="43:43">
+      <c r="AQ153" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="158" spans="41:41">
-      <c r="AO158" t="s">
+    <row r="154" spans="43:43">
+      <c r="AQ154" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="159" spans="41:41">
-      <c r="AO159" t="s">
+    <row r="155" spans="43:43">
+      <c r="AQ155" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="160" spans="41:41">
-      <c r="AO160" t="s">
+    <row r="156" spans="43:43">
+      <c r="AQ156" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="161" spans="41:41">
-      <c r="AO161" t="s">
+    <row r="157" spans="43:43">
+      <c r="AQ157" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="162" spans="41:41">
-      <c r="AO162" t="s">
+    <row r="158" spans="43:43">
+      <c r="AQ158" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="163" spans="41:41">
-      <c r="AO163" t="s">
+    <row r="159" spans="43:43">
+      <c r="AQ159" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="164" spans="41:41">
-      <c r="AO164" t="s">
+    <row r="160" spans="43:43">
+      <c r="AQ160" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="165" spans="41:41">
-      <c r="AO165" t="s">
+    <row r="161" spans="43:43">
+      <c r="AQ161" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="166" spans="41:41">
-      <c r="AO166" t="s">
+    <row r="162" spans="43:43">
+      <c r="AQ162" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="167" spans="41:41">
-      <c r="AO167" t="s">
+    <row r="163" spans="43:43">
+      <c r="AQ163" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="41:41">
-      <c r="AO168" t="s">
+    <row r="164" spans="43:43">
+      <c r="AQ164" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="169" spans="41:41">
-      <c r="AO169" t="s">
+    <row r="165" spans="43:43">
+      <c r="AQ165" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="41:41">
-      <c r="AO170" t="s">
+    <row r="166" spans="43:43">
+      <c r="AQ166" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="171" spans="41:41">
-      <c r="AO171" t="s">
+    <row r="167" spans="43:43">
+      <c r="AQ167" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="172" spans="41:41">
-      <c r="AO172" t="s">
+    <row r="168" spans="43:43">
+      <c r="AQ168" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="173" spans="41:41">
-      <c r="AO173" t="s">
+    <row r="169" spans="43:43">
+      <c r="AQ169" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="174" spans="41:41">
-      <c r="AO174" t="s">
+    <row r="170" spans="43:43">
+      <c r="AQ170" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="175" spans="41:41">
-      <c r="AO175" t="s">
+    <row r="171" spans="43:43">
+      <c r="AQ171" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="176" spans="41:41">
-      <c r="AO176" t="s">
+    <row r="172" spans="43:43">
+      <c r="AQ172" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="177" spans="41:41">
-      <c r="AO177" t="s">
+    <row r="173" spans="43:43">
+      <c r="AQ173" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="41:41">
-      <c r="AO178" t="s">
+    <row r="174" spans="43:43">
+      <c r="AQ174" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="179" spans="41:41">
-      <c r="AO179" t="s">
+    <row r="175" spans="43:43">
+      <c r="AQ175" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="41:41">
-      <c r="AO180" t="s">
+    <row r="176" spans="43:43">
+      <c r="AQ176" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="41:41">
-      <c r="AO181" t="s">
+    <row r="177" spans="43:43">
+      <c r="AQ177" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="182" spans="41:41">
-      <c r="AO182" t="s">
+    <row r="178" spans="43:43">
+      <c r="AQ178" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="183" spans="41:41">
-      <c r="AO183" t="s">
+    <row r="179" spans="43:43">
+      <c r="AQ179" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="184" spans="41:41">
-      <c r="AO184" t="s">
+    <row r="180" spans="43:43">
+      <c r="AQ180" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="185" spans="41:41">
-      <c r="AO185" t="s">
+    <row r="181" spans="43:43">
+      <c r="AQ181" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="186" spans="41:41">
-      <c r="AO186" t="s">
+    <row r="182" spans="43:43">
+      <c r="AQ182" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="187" spans="41:41">
-      <c r="AO187" t="s">
+    <row r="183" spans="43:43">
+      <c r="AQ183" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="188" spans="41:41">
-      <c r="AO188" t="s">
+    <row r="184" spans="43:43">
+      <c r="AQ184" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="189" spans="41:41">
-      <c r="AO189" t="s">
+    <row r="185" spans="43:43">
+      <c r="AQ185" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="190" spans="41:41">
-      <c r="AO190" t="s">
+    <row r="186" spans="43:43">
+      <c r="AQ186" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="191" spans="41:41">
-      <c r="AO191" t="s">
+    <row r="187" spans="43:43">
+      <c r="AQ187" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="192" spans="41:41">
-      <c r="AO192" t="s">
+    <row r="188" spans="43:43">
+      <c r="AQ188" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="193" spans="41:41">
-      <c r="AO193" t="s">
+    <row r="189" spans="43:43">
+      <c r="AQ189" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="194" spans="41:41">
-      <c r="AO194" t="s">
+    <row r="190" spans="43:43">
+      <c r="AQ190" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="195" spans="41:41">
-      <c r="AO195" t="s">
+    <row r="191" spans="43:43">
+      <c r="AQ191" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="196" spans="41:41">
-      <c r="AO196" t="s">
+    <row r="192" spans="43:43">
+      <c r="AQ192" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="197" spans="41:41">
-      <c r="AO197" t="s">
+    <row r="193" spans="43:43">
+      <c r="AQ193" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="198" spans="41:41">
-      <c r="AO198" t="s">
+    <row r="194" spans="43:43">
+      <c r="AQ194" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="199" spans="41:41">
-      <c r="AO199" t="s">
+    <row r="195" spans="43:43">
+      <c r="AQ195" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="200" spans="41:41">
-      <c r="AO200" t="s">
+    <row r="196" spans="43:43">
+      <c r="AQ196" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="201" spans="41:41">
-      <c r="AO201" t="s">
+    <row r="197" spans="43:43">
+      <c r="AQ197" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="202" spans="41:41">
-      <c r="AO202" t="s">
+    <row r="198" spans="43:43">
+      <c r="AQ198" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="203" spans="41:41">
-      <c r="AO203" t="s">
+    <row r="199" spans="43:43">
+      <c r="AQ199" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="204" spans="41:41">
-      <c r="AO204" t="s">
+    <row r="200" spans="43:43">
+      <c r="AQ200" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="205" spans="41:41">
-      <c r="AO205" t="s">
+    <row r="201" spans="43:43">
+      <c r="AQ201" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="206" spans="41:41">
-      <c r="AO206" t="s">
+    <row r="202" spans="43:43">
+      <c r="AQ202" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="207" spans="41:41">
-      <c r="AO207" t="s">
+    <row r="203" spans="43:43">
+      <c r="AQ203" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="208" spans="41:41">
-      <c r="AO208" t="s">
+    <row r="204" spans="43:43">
+      <c r="AQ204" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="209" spans="41:41">
-      <c r="AO209" t="s">
+    <row r="205" spans="43:43">
+      <c r="AQ205" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="210" spans="41:41">
-      <c r="AO210" t="s">
+    <row r="206" spans="43:43">
+      <c r="AQ206" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="211" spans="41:41">
-      <c r="AO211" t="s">
+    <row r="207" spans="43:43">
+      <c r="AQ207" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="212" spans="41:41">
-      <c r="AO212" t="s">
+    <row r="208" spans="43:43">
+      <c r="AQ208" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="213" spans="41:41">
-      <c r="AO213" t="s">
+    <row r="209" spans="43:43">
+      <c r="AQ209" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="214" spans="41:41">
-      <c r="AO214" t="s">
+    <row r="210" spans="43:43">
+      <c r="AQ210" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="215" spans="41:41">
-      <c r="AO215" t="s">
+    <row r="211" spans="43:43">
+      <c r="AQ211" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="216" spans="41:41">
-      <c r="AO216" t="s">
+    <row r="212" spans="43:43">
+      <c r="AQ212" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="217" spans="41:41">
-      <c r="AO217" t="s">
+    <row r="213" spans="43:43">
+      <c r="AQ213" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="218" spans="41:41">
-      <c r="AO218" t="s">
+    <row r="214" spans="43:43">
+      <c r="AQ214" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="219" spans="41:41">
-      <c r="AO219" t="s">
+    <row r="215" spans="43:43">
+      <c r="AQ215" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="220" spans="41:41">
-      <c r="AO220" t="s">
+    <row r="216" spans="43:43">
+      <c r="AQ216" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="221" spans="41:41">
-      <c r="AO221" t="s">
+    <row r="217" spans="43:43">
+      <c r="AQ217" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="222" spans="41:41">
-      <c r="AO222" t="s">
+    <row r="218" spans="43:43">
+      <c r="AQ218" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="223" spans="41:41">
-      <c r="AO223" t="s">
+    <row r="219" spans="43:43">
+      <c r="AQ219" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="224" spans="41:41">
-      <c r="AO224" t="s">
+    <row r="220" spans="43:43">
+      <c r="AQ220" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="225" spans="41:41">
-      <c r="AO225" t="s">
+    <row r="221" spans="43:43">
+      <c r="AQ221" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="226" spans="41:41">
-      <c r="AO226" t="s">
+    <row r="222" spans="43:43">
+      <c r="AQ222" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="227" spans="41:41">
-      <c r="AO227" t="s">
+    <row r="223" spans="43:43">
+      <c r="AQ223" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="228" spans="41:41">
-      <c r="AO228" t="s">
+    <row r="224" spans="43:43">
+      <c r="AQ224" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="229" spans="41:41">
-      <c r="AO229" t="s">
+    <row r="225" spans="43:43">
+      <c r="AQ225" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="230" spans="41:41">
-      <c r="AO230" t="s">
+    <row r="226" spans="43:43">
+      <c r="AQ226" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="231" spans="41:41">
-      <c r="AO231" t="s">
+    <row r="227" spans="43:43">
+      <c r="AQ227" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="232" spans="41:41">
-      <c r="AO232" t="s">
+    <row r="228" spans="43:43">
+      <c r="AQ228" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="233" spans="41:41">
-      <c r="AO233" t="s">
+    <row r="229" spans="43:43">
+      <c r="AQ229" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="234" spans="41:41">
-      <c r="AO234" t="s">
+    <row r="230" spans="43:43">
+      <c r="AQ230" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="235" spans="41:41">
-      <c r="AO235" t="s">
+    <row r="231" spans="43:43">
+      <c r="AQ231" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="236" spans="41:41">
-      <c r="AO236" t="s">
+    <row r="232" spans="43:43">
+      <c r="AQ232" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="237" spans="41:41">
-      <c r="AO237" t="s">
+    <row r="233" spans="43:43">
+      <c r="AQ233" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="238" spans="41:41">
-      <c r="AO238" t="s">
+    <row r="234" spans="43:43">
+      <c r="AQ234" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="239" spans="41:41">
-      <c r="AO239" t="s">
+    <row r="235" spans="43:43">
+      <c r="AQ235" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="240" spans="41:41">
-      <c r="AO240" t="s">
+    <row r="236" spans="43:43">
+      <c r="AQ236" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="241" spans="41:41">
-      <c r="AO241" t="s">
+    <row r="237" spans="43:43">
+      <c r="AQ237" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="242" spans="41:41">
-      <c r="AO242" t="s">
+    <row r="238" spans="43:43">
+      <c r="AQ238" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="243" spans="41:41">
-      <c r="AO243" t="s">
+    <row r="239" spans="43:43">
+      <c r="AQ239" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="244" spans="41:41">
-      <c r="AO244" t="s">
+    <row r="240" spans="43:43">
+      <c r="AQ240" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="245" spans="41:41">
-      <c r="AO245" t="s">
+    <row r="241" spans="43:43">
+      <c r="AQ241" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="246" spans="41:41">
-      <c r="AO246" t="s">
+    <row r="242" spans="43:43">
+      <c r="AQ242" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="247" spans="41:41">
-      <c r="AO247" t="s">
+    <row r="243" spans="43:43">
+      <c r="AQ243" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="248" spans="41:41">
-      <c r="AO248" t="s">
+    <row r="244" spans="43:43">
+      <c r="AQ244" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="249" spans="41:41">
-      <c r="AO249" t="s">
+    <row r="245" spans="43:43">
+      <c r="AQ245" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="250" spans="41:41">
-      <c r="AO250" t="s">
+    <row r="246" spans="43:43">
+      <c r="AQ246" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="251" spans="41:41">
-      <c r="AO251" t="s">
+    <row r="247" spans="43:43">
+      <c r="AQ247" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="252" spans="41:41">
-      <c r="AO252" t="s">
+    <row r="248" spans="43:43">
+      <c r="AQ248" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="253" spans="41:41">
-      <c r="AO253" t="s">
+    <row r="249" spans="43:43">
+      <c r="AQ249" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="254" spans="41:41">
-      <c r="AO254" t="s">
+    <row r="250" spans="43:43">
+      <c r="AQ250" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="255" spans="41:41">
-      <c r="AO255" t="s">
+    <row r="251" spans="43:43">
+      <c r="AQ251" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="256" spans="41:41">
-      <c r="AO256" t="s">
+    <row r="252" spans="43:43">
+      <c r="AQ252" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="257" spans="41:41">
-      <c r="AO257" t="s">
+    <row r="253" spans="43:43">
+      <c r="AQ253" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="258" spans="41:41">
-      <c r="AO258" t="s">
+    <row r="254" spans="43:43">
+      <c r="AQ254" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="259" spans="41:41">
-      <c r="AO259" t="s">
+    <row r="255" spans="43:43">
+      <c r="AQ255" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="260" spans="41:41">
-      <c r="AO260" t="s">
+    <row r="256" spans="43:43">
+      <c r="AQ256" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="261" spans="41:41">
-      <c r="AO261" t="s">
+    <row r="257" spans="43:43">
+      <c r="AQ257" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="262" spans="41:41">
-      <c r="AO262" t="s">
+    <row r="258" spans="43:43">
+      <c r="AQ258" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="263" spans="41:41">
-      <c r="AO263" t="s">
+    <row r="259" spans="43:43">
+      <c r="AQ259" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="264" spans="41:41">
-      <c r="AO264" t="s">
+    <row r="260" spans="43:43">
+      <c r="AQ260" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="265" spans="41:41">
-      <c r="AO265" t="s">
+    <row r="261" spans="43:43">
+      <c r="AQ261" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="266" spans="41:41">
-      <c r="AO266" t="s">
+    <row r="262" spans="43:43">
+      <c r="AQ262" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="267" spans="41:41">
-      <c r="AO267" t="s">
+    <row r="263" spans="43:43">
+      <c r="AQ263" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="268" spans="41:41">
-      <c r="AO268" t="s">
+    <row r="264" spans="43:43">
+      <c r="AQ264" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="269" spans="41:41">
-      <c r="AO269" t="s">
+    <row r="265" spans="43:43">
+      <c r="AQ265" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="270" spans="41:41">
-      <c r="AO270" t="s">
+    <row r="266" spans="43:43">
+      <c r="AQ266" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="271" spans="41:41">
-      <c r="AO271" t="s">
+    <row r="267" spans="43:43">
+      <c r="AQ267" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="272" spans="41:41">
-      <c r="AO272" t="s">
+    <row r="268" spans="43:43">
+      <c r="AQ268" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="273" spans="41:41">
-      <c r="AO273" t="s">
+    <row r="269" spans="43:43">
+      <c r="AQ269" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="274" spans="41:41">
-      <c r="AO274" t="s">
+    <row r="270" spans="43:43">
+      <c r="AQ270" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="275" spans="41:41">
-      <c r="AO275" t="s">
+    <row r="271" spans="43:43">
+      <c r="AQ271" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="276" spans="41:41">
-      <c r="AO276" t="s">
+    <row r="272" spans="43:43">
+      <c r="AQ272" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="277" spans="41:41">
-      <c r="AO277" t="s">
+    <row r="273" spans="43:43">
+      <c r="AQ273" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="278" spans="41:41">
-      <c r="AO278" t="s">
+    <row r="274" spans="43:43">
+      <c r="AQ274" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="279" spans="41:41">
-      <c r="AO279" t="s">
+    <row r="275" spans="43:43">
+      <c r="AQ275" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="280" spans="41:41">
-      <c r="AO280" t="s">
+    <row r="276" spans="43:43">
+      <c r="AQ276" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="281" spans="41:41">
-      <c r="AO281" t="s">
+    <row r="277" spans="43:43">
+      <c r="AQ277" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="282" spans="41:41">
-      <c r="AO282" t="s">
+    <row r="278" spans="43:43">
+      <c r="AQ278" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="283" spans="41:41">
-      <c r="AO283" t="s">
+    <row r="279" spans="43:43">
+      <c r="AQ279" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="284" spans="41:41">
-      <c r="AO284" t="s">
+    <row r="280" spans="43:43">
+      <c r="AQ280" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="285" spans="41:41">
-      <c r="AO285" t="s">
+    <row r="281" spans="43:43">
+      <c r="AQ281" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="286" spans="41:41">
-      <c r="AO286" t="s">
+    <row r="282" spans="43:43">
+      <c r="AQ282" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="287" spans="41:41">
-      <c r="AO287" t="s">
+    <row r="283" spans="43:43">
+      <c r="AQ283" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="288" spans="41:41">
-      <c r="AO288" t="s">
+    <row r="284" spans="43:43">
+      <c r="AQ284" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="289" spans="41:41">
-      <c r="AO289" t="s">
+    <row r="285" spans="43:43">
+      <c r="AQ285" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="286" spans="43:43">
+      <c r="AQ286" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="287" spans="43:43">
+      <c r="AQ287" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="288" spans="43:43">
+      <c r="AQ288" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="289" spans="43:43">
+      <c r="AQ289" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AC$1:$AC$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$Z$1:$Z$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="709">
   <si>
     <t>alias</t>
   </si>
@@ -1110,7 +1110,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1332,9 +1332,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1353,6 +1350,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1554,6 +1554,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1563,9 +1566,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1674,6 +1674,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1749,6 +1752,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1770,6 +1776,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1815,6 +1824,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1827,6 +1839,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1836,9 +1851,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1863,6 +1875,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1923,12 +1938,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2148,7 +2163,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3819,70 +3834,70 @@
         <v>358</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="150" customHeight="1">
@@ -4013,70 +4028,70 @@
         <v>359</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BJ289"/>
+  <dimension ref="G1:BJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4135,13 +4150,13 @@
         <v>360</v>
       </c>
       <c r="AX1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="BH1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BJ1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="7:62">
@@ -4161,13 +4176,13 @@
         <v>361</v>
       </c>
       <c r="AX2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="BH2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BJ2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="7:62">
@@ -4181,10 +4196,10 @@
         <v>362</v>
       </c>
       <c r="AX3" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="BJ3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="7:62">
@@ -4195,10 +4210,10 @@
         <v>363</v>
       </c>
       <c r="AX4" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="BJ4" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="7:62">
@@ -4209,7 +4224,7 @@
         <v>364</v>
       </c>
       <c r="BJ5" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="7:62">
@@ -5639,6 +5654,31 @@
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
         <v>648</v>
+      </c>
+    </row>
+    <row r="290" spans="43:43">
+      <c r="AQ290" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="291" spans="43:43">
+      <c r="AQ291" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="292" spans="43:43">
+      <c r="AQ292" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="293" spans="43:43">
+      <c r="AQ293" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="294" spans="43:43">
+      <c r="AQ294" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000048/metadata_template_ERC000048.xlsx
+++ b/templates/ERC000048/metadata_template_ERC000048.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AC$1:$AC$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$Z$1:$Z$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="709">
   <si>
     <t>alias</t>
   </si>
@@ -1110,7 +1110,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1332,9 +1332,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1353,6 +1350,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1554,6 +1554,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1563,9 +1566,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1674,6 +1674,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1749,6 +1752,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1770,6 +1776,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1815,6 +1824,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1827,6 +1839,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1836,9 +1851,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1863,6 +1875,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1923,12 +1938,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2148,7 +2163,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3819,70 +3834,70 @@
         <v>358</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="150" customHeight="1">
@@ -4013,70 +4028,70 @@
         <v>359</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BJ289"/>
+  <dimension ref="G1:BJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4135,13 +4150,13 @@
         <v>360</v>
       </c>
       <c r="AX1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="BH1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BJ1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="7:62">
@@ -4161,13 +4176,13 @@
         <v>361</v>
       </c>
       <c r="AX2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="BH2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BJ2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="7:62">
@@ -4181,10 +4196,10 @@
         <v>362</v>
       </c>
       <c r="AX3" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="BJ3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="7:62">
@@ -4195,10 +4210,10 @@
         <v>363</v>
       </c>
       <c r="AX4" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="BJ4" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="7:62">
@@ -4209,7 +4224,7 @@
         <v>364</v>
       </c>
       <c r="BJ5" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="7:62">
@@ -5639,6 +5654,31 @@
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
         <v>648</v>
+      </c>
+    </row>
+    <row r="290" spans="43:43">
+      <c r="AQ290" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="291" spans="43:43">
+      <c r="AQ291" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="292" spans="43:43">
+      <c r="AQ292" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="293" spans="43:43">
+      <c r="AQ293" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="294" spans="43:43">
+      <c r="AQ294" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
